--- a/artifact/data/ws-02.data.xlsx
+++ b/artifact/data/ws-02.data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/ep/sentry/tutorial-workspace/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0298BA1-321C-BE4E-8AFE-AA7547EA7F70}" xr6:coauthVersionLast="29" xr6:coauthVersionMax="29" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="-20560" windowWidth="33600" windowHeight="10580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="15740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="webcookie">'[1]#system'!$O$2:$O$8</definedName>
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -258,7 +259,72 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -680,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAA11"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -803,23 +869,42 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A1:A11 A13:A1048576">
+    <cfRule type="beginsWith" dxfId="14" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+      <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="13" priority="7" stopIfTrue="1" operator="beginsWith" text="sentry.">
+      <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="12" priority="8" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B11 B13:B1048576">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="10" priority="10">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
     <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
-      <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
+      <formula>LEFT(A12,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
-      <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
+      <formula>LEFT(A12,LEN("sentry."))="sentry."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
+      <formula>LEN(TRIM(A12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B12">
     <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="5">
-      <formula>LEN(TRIM(B1))&gt;0</formula>
+      <formula>LEN(TRIM(B12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -831,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C038B24C-D2C7-7D40-9BBE-3AA87580F7E7}">
   <dimension ref="A1:AAA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -900,7 +985,7 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A1:A6 A8:A1048576">
     <cfRule type="beginsWith" dxfId="4" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
@@ -911,7 +996,7 @@
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B6 B8:B1048576">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>

--- a/artifact/data/ws-02.data.xlsx
+++ b/artifact/data/ws-02.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175F288C-49E7-BC43-9501-F8751A81A7F5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1817311F-971A-F04C-9FF8-F4C36AAA2298}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="20480" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="-21160" windowWidth="38400" windowHeight="7040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -42,6 +42,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -50,12 +55,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>true</t>
-  </si>
-  <si>
-    <t>800</t>
   </si>
   <si>
     <t>,</t>
@@ -65,9 +67,6 @@
   </si>
   <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>target url</t>
@@ -118,12 +117,6 @@
     <t>nexial.scope.iteration</t>
   </si>
   <si>
-    <t>nexial.delayBetweenStepsMs</t>
-  </si>
-  <si>
-    <t>nexial.pollWaitMs</t>
-  </si>
-  <si>
     <t>nexial.failFast</t>
   </si>
   <si>
@@ -131,6 +124,9 @@
   </si>
   <si>
     <t>nexial.verbose</t>
+  </si>
+  <si>
+    <t>target url 2</t>
   </si>
 </sst>
 </file>
@@ -259,137 +255,7 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <b val="0"/>
@@ -522,31 +388,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -607,46 +448,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -939,9 +740,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAA11"/>
+  <dimension ref="A1:AAA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -954,7 +757,7 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1663,10 +1466,10 @@
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -2372,10 +2175,10 @@
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -2583,7 +2386,7 @@
       <c r="GX3"/>
       <c r="GY3"/>
       <c r="GZ3"/>
-      <c r="HA3" s="6"/>
+      <c r="HA3" s="4"/>
       <c r="HB3"/>
       <c r="HC3"/>
       <c r="HD3"/>
@@ -3077,11 +2880,11 @@
       <c r="ZX3"/>
       <c r="ZY3"/>
       <c r="ZZ3"/>
-      <c r="AAA3" s="6"/>
+      <c r="AAA3" s="5"/>
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -3790,10 +3593,10 @@
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -4499,10 +4302,10 @@
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -5208,10 +5011,10 @@
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -5917,10 +5720,10 @@
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -6626,10 +6429,10 @@
     </row>
     <row r="9" spans="1:703">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -6837,7 +6640,7 @@
       <c r="GX9"/>
       <c r="GY9"/>
       <c r="GZ9"/>
-      <c r="HA9" s="4"/>
+      <c r="HA9"/>
       <c r="HB9"/>
       <c r="HC9"/>
       <c r="HD9"/>
@@ -7331,1463 +7134,45 @@
       <c r="ZX9"/>
       <c r="ZY9"/>
       <c r="ZZ9"/>
-      <c r="AAA9" s="5"/>
-    </row>
-    <row r="10" spans="1:703">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
-      <c r="AQ10"/>
-      <c r="AR10"/>
-      <c r="AS10"/>
-      <c r="AT10"/>
-      <c r="AU10"/>
-      <c r="AV10"/>
-      <c r="AW10"/>
-      <c r="AX10"/>
-      <c r="AY10"/>
-      <c r="AZ10"/>
-      <c r="BA10"/>
-      <c r="BB10"/>
-      <c r="BC10"/>
-      <c r="BD10"/>
-      <c r="BE10"/>
-      <c r="BF10"/>
-      <c r="BG10"/>
-      <c r="BH10"/>
-      <c r="BI10"/>
-      <c r="BJ10"/>
-      <c r="BK10"/>
-      <c r="BL10"/>
-      <c r="BM10"/>
-      <c r="BN10"/>
-      <c r="BO10"/>
-      <c r="BP10"/>
-      <c r="BQ10"/>
-      <c r="BR10"/>
-      <c r="BS10"/>
-      <c r="BT10"/>
-      <c r="BU10"/>
-      <c r="BV10"/>
-      <c r="BW10"/>
-      <c r="BX10"/>
-      <c r="BY10"/>
-      <c r="BZ10"/>
-      <c r="CA10"/>
-      <c r="CB10"/>
-      <c r="CC10"/>
-      <c r="CD10"/>
-      <c r="CE10"/>
-      <c r="CF10"/>
-      <c r="CG10"/>
-      <c r="CH10"/>
-      <c r="CI10"/>
-      <c r="CJ10"/>
-      <c r="CK10"/>
-      <c r="CL10"/>
-      <c r="CM10"/>
-      <c r="CN10"/>
-      <c r="CO10"/>
-      <c r="CP10"/>
-      <c r="CQ10"/>
-      <c r="CR10"/>
-      <c r="CS10"/>
-      <c r="CT10"/>
-      <c r="CU10"/>
-      <c r="CV10"/>
-      <c r="CW10"/>
-      <c r="CX10"/>
-      <c r="CY10"/>
-      <c r="CZ10"/>
-      <c r="DA10"/>
-      <c r="DB10"/>
-      <c r="DC10"/>
-      <c r="DD10"/>
-      <c r="DE10"/>
-      <c r="DF10"/>
-      <c r="DG10"/>
-      <c r="DH10"/>
-      <c r="DI10"/>
-      <c r="DJ10"/>
-      <c r="DK10"/>
-      <c r="DL10"/>
-      <c r="DM10"/>
-      <c r="DN10"/>
-      <c r="DO10"/>
-      <c r="DP10"/>
-      <c r="DQ10"/>
-      <c r="DR10"/>
-      <c r="DS10"/>
-      <c r="DT10"/>
-      <c r="DU10"/>
-      <c r="DV10"/>
-      <c r="DW10"/>
-      <c r="DX10"/>
-      <c r="DY10"/>
-      <c r="DZ10"/>
-      <c r="EA10"/>
-      <c r="EB10"/>
-      <c r="EC10"/>
-      <c r="ED10"/>
-      <c r="EE10"/>
-      <c r="EF10"/>
-      <c r="EG10"/>
-      <c r="EH10"/>
-      <c r="EI10"/>
-      <c r="EJ10"/>
-      <c r="EK10"/>
-      <c r="EL10"/>
-      <c r="EM10"/>
-      <c r="EN10"/>
-      <c r="EO10"/>
-      <c r="EP10"/>
-      <c r="EQ10"/>
-      <c r="ER10"/>
-      <c r="ES10"/>
-      <c r="ET10"/>
-      <c r="EU10"/>
-      <c r="EV10"/>
-      <c r="EW10"/>
-      <c r="EX10"/>
-      <c r="EY10"/>
-      <c r="EZ10"/>
-      <c r="FA10"/>
-      <c r="FB10"/>
-      <c r="FC10"/>
-      <c r="FD10"/>
-      <c r="FE10"/>
-      <c r="FF10"/>
-      <c r="FG10"/>
-      <c r="FH10"/>
-      <c r="FI10"/>
-      <c r="FJ10"/>
-      <c r="FK10"/>
-      <c r="FL10"/>
-      <c r="FM10"/>
-      <c r="FN10"/>
-      <c r="FO10"/>
-      <c r="FP10"/>
-      <c r="FQ10"/>
-      <c r="FR10"/>
-      <c r="FS10"/>
-      <c r="FT10"/>
-      <c r="FU10"/>
-      <c r="FV10"/>
-      <c r="FW10"/>
-      <c r="FX10"/>
-      <c r="FY10"/>
-      <c r="FZ10"/>
-      <c r="GA10"/>
-      <c r="GB10"/>
-      <c r="GC10"/>
-      <c r="GD10"/>
-      <c r="GE10"/>
-      <c r="GF10"/>
-      <c r="GG10"/>
-      <c r="GH10"/>
-      <c r="GI10"/>
-      <c r="GJ10"/>
-      <c r="GK10"/>
-      <c r="GL10"/>
-      <c r="GM10"/>
-      <c r="GN10"/>
-      <c r="GO10"/>
-      <c r="GP10"/>
-      <c r="GQ10"/>
-      <c r="GR10"/>
-      <c r="GS10"/>
-      <c r="GT10"/>
-      <c r="GU10"/>
-      <c r="GV10"/>
-      <c r="GW10"/>
-      <c r="GX10"/>
-      <c r="GY10"/>
-      <c r="GZ10"/>
-      <c r="HA10" s="4"/>
-      <c r="HB10"/>
-      <c r="HC10"/>
-      <c r="HD10"/>
-      <c r="HE10"/>
-      <c r="HF10"/>
-      <c r="HG10"/>
-      <c r="HH10"/>
-      <c r="HI10"/>
-      <c r="HJ10"/>
-      <c r="HK10"/>
-      <c r="HL10"/>
-      <c r="HM10"/>
-      <c r="HN10"/>
-      <c r="HO10"/>
-      <c r="HP10"/>
-      <c r="HQ10"/>
-      <c r="HR10"/>
-      <c r="HS10"/>
-      <c r="HT10"/>
-      <c r="HU10"/>
-      <c r="HV10"/>
-      <c r="HW10"/>
-      <c r="HX10"/>
-      <c r="HY10"/>
-      <c r="HZ10"/>
-      <c r="IA10"/>
-      <c r="IB10"/>
-      <c r="IC10"/>
-      <c r="ID10"/>
-      <c r="IE10"/>
-      <c r="IF10"/>
-      <c r="IG10"/>
-      <c r="IH10"/>
-      <c r="II10"/>
-      <c r="IJ10"/>
-      <c r="IK10"/>
-      <c r="IL10"/>
-      <c r="IM10"/>
-      <c r="IN10"/>
-      <c r="IO10"/>
-      <c r="IP10"/>
-      <c r="IQ10"/>
-      <c r="IR10"/>
-      <c r="IS10"/>
-      <c r="IT10"/>
-      <c r="IU10"/>
-      <c r="IV10"/>
-      <c r="IW10"/>
-      <c r="IX10"/>
-      <c r="IY10"/>
-      <c r="IZ10"/>
-      <c r="JA10"/>
-      <c r="JB10"/>
-      <c r="JC10"/>
-      <c r="JD10"/>
-      <c r="JE10"/>
-      <c r="JF10"/>
-      <c r="JG10"/>
-      <c r="JH10"/>
-      <c r="JI10"/>
-      <c r="JJ10"/>
-      <c r="JK10"/>
-      <c r="JL10"/>
-      <c r="JM10"/>
-      <c r="JN10"/>
-      <c r="JO10"/>
-      <c r="JP10"/>
-      <c r="JQ10"/>
-      <c r="JR10"/>
-      <c r="JS10"/>
-      <c r="JT10"/>
-      <c r="JU10"/>
-      <c r="JV10"/>
-      <c r="JW10"/>
-      <c r="JX10"/>
-      <c r="JY10"/>
-      <c r="JZ10"/>
-      <c r="KA10"/>
-      <c r="KB10"/>
-      <c r="KC10"/>
-      <c r="KD10"/>
-      <c r="KE10"/>
-      <c r="KF10"/>
-      <c r="KG10"/>
-      <c r="KH10"/>
-      <c r="KI10"/>
-      <c r="KJ10"/>
-      <c r="KK10"/>
-      <c r="KL10"/>
-      <c r="KM10"/>
-      <c r="KN10"/>
-      <c r="KO10"/>
-      <c r="KP10"/>
-      <c r="KQ10"/>
-      <c r="KR10"/>
-      <c r="KS10"/>
-      <c r="KT10"/>
-      <c r="KU10"/>
-      <c r="KV10"/>
-      <c r="KW10"/>
-      <c r="KX10"/>
-      <c r="KY10"/>
-      <c r="KZ10"/>
-      <c r="LA10"/>
-      <c r="LB10"/>
-      <c r="LC10"/>
-      <c r="LD10"/>
-      <c r="LE10"/>
-      <c r="LF10"/>
-      <c r="LG10"/>
-      <c r="LH10"/>
-      <c r="LI10"/>
-      <c r="LJ10"/>
-      <c r="LK10"/>
-      <c r="LL10"/>
-      <c r="LM10"/>
-      <c r="LN10"/>
-      <c r="LO10"/>
-      <c r="LP10"/>
-      <c r="LQ10"/>
-      <c r="LR10"/>
-      <c r="LS10"/>
-      <c r="LT10"/>
-      <c r="LU10"/>
-      <c r="LV10"/>
-      <c r="LW10"/>
-      <c r="LX10"/>
-      <c r="LY10"/>
-      <c r="LZ10"/>
-      <c r="MA10"/>
-      <c r="MB10"/>
-      <c r="MC10"/>
-      <c r="MD10"/>
-      <c r="ME10"/>
-      <c r="MF10"/>
-      <c r="MG10"/>
-      <c r="MH10"/>
-      <c r="MI10"/>
-      <c r="MJ10"/>
-      <c r="MK10"/>
-      <c r="ML10"/>
-      <c r="MM10"/>
-      <c r="MN10"/>
-      <c r="MO10"/>
-      <c r="MP10"/>
-      <c r="MQ10"/>
-      <c r="MR10"/>
-      <c r="MS10"/>
-      <c r="MT10"/>
-      <c r="MU10"/>
-      <c r="MV10"/>
-      <c r="MW10"/>
-      <c r="MX10"/>
-      <c r="MY10"/>
-      <c r="MZ10"/>
-      <c r="NA10"/>
-      <c r="NB10"/>
-      <c r="NC10"/>
-      <c r="ND10"/>
-      <c r="NE10"/>
-      <c r="NF10"/>
-      <c r="NG10"/>
-      <c r="NH10"/>
-      <c r="NI10"/>
-      <c r="NJ10"/>
-      <c r="NK10"/>
-      <c r="NL10"/>
-      <c r="NM10"/>
-      <c r="NN10"/>
-      <c r="NO10"/>
-      <c r="NP10"/>
-      <c r="NQ10"/>
-      <c r="NR10"/>
-      <c r="NS10"/>
-      <c r="NT10"/>
-      <c r="NU10"/>
-      <c r="NV10"/>
-      <c r="NW10"/>
-      <c r="NX10"/>
-      <c r="NY10"/>
-      <c r="NZ10"/>
-      <c r="OA10"/>
-      <c r="OB10"/>
-      <c r="OC10"/>
-      <c r="OD10"/>
-      <c r="OE10"/>
-      <c r="OF10"/>
-      <c r="OG10"/>
-      <c r="OH10"/>
-      <c r="OI10"/>
-      <c r="OJ10"/>
-      <c r="OK10"/>
-      <c r="OL10"/>
-      <c r="OM10"/>
-      <c r="ON10"/>
-      <c r="OO10"/>
-      <c r="OP10"/>
-      <c r="OQ10"/>
-      <c r="OR10"/>
-      <c r="OS10"/>
-      <c r="OT10"/>
-      <c r="OU10"/>
-      <c r="OV10"/>
-      <c r="OW10"/>
-      <c r="OX10"/>
-      <c r="OY10"/>
-      <c r="OZ10"/>
-      <c r="PA10"/>
-      <c r="PB10"/>
-      <c r="PC10"/>
-      <c r="PD10"/>
-      <c r="PE10"/>
-      <c r="PF10"/>
-      <c r="PG10"/>
-      <c r="PH10"/>
-      <c r="PI10"/>
-      <c r="PJ10"/>
-      <c r="PK10"/>
-      <c r="PL10"/>
-      <c r="PM10"/>
-      <c r="PN10"/>
-      <c r="PO10"/>
-      <c r="PP10"/>
-      <c r="PQ10"/>
-      <c r="PR10"/>
-      <c r="PS10"/>
-      <c r="PT10"/>
-      <c r="PU10"/>
-      <c r="PV10"/>
-      <c r="PW10"/>
-      <c r="PX10"/>
-      <c r="PY10"/>
-      <c r="PZ10"/>
-      <c r="QA10"/>
-      <c r="QB10"/>
-      <c r="QC10"/>
-      <c r="QD10"/>
-      <c r="QE10"/>
-      <c r="QF10"/>
-      <c r="QG10"/>
-      <c r="QH10"/>
-      <c r="QI10"/>
-      <c r="QJ10"/>
-      <c r="QK10"/>
-      <c r="QL10"/>
-      <c r="QM10"/>
-      <c r="QN10"/>
-      <c r="QO10"/>
-      <c r="QP10"/>
-      <c r="QQ10"/>
-      <c r="QR10"/>
-      <c r="QS10"/>
-      <c r="QT10"/>
-      <c r="QU10"/>
-      <c r="QV10"/>
-      <c r="QW10"/>
-      <c r="QX10"/>
-      <c r="QY10"/>
-      <c r="QZ10"/>
-      <c r="RA10"/>
-      <c r="RB10"/>
-      <c r="RC10"/>
-      <c r="RD10"/>
-      <c r="RE10"/>
-      <c r="RF10"/>
-      <c r="RG10"/>
-      <c r="RH10"/>
-      <c r="RI10"/>
-      <c r="RJ10"/>
-      <c r="RK10"/>
-      <c r="RL10"/>
-      <c r="RM10"/>
-      <c r="RN10"/>
-      <c r="RO10"/>
-      <c r="RP10"/>
-      <c r="RQ10"/>
-      <c r="RR10"/>
-      <c r="RS10"/>
-      <c r="RT10"/>
-      <c r="RU10"/>
-      <c r="RV10"/>
-      <c r="RW10"/>
-      <c r="RX10"/>
-      <c r="RY10"/>
-      <c r="RZ10"/>
-      <c r="SA10"/>
-      <c r="SB10"/>
-      <c r="SC10"/>
-      <c r="SD10"/>
-      <c r="SE10"/>
-      <c r="SF10"/>
-      <c r="SG10"/>
-      <c r="SH10"/>
-      <c r="SI10"/>
-      <c r="SJ10"/>
-      <c r="SK10"/>
-      <c r="SL10"/>
-      <c r="SM10"/>
-      <c r="SN10"/>
-      <c r="SO10"/>
-      <c r="SP10"/>
-      <c r="SQ10"/>
-      <c r="SR10"/>
-      <c r="SS10"/>
-      <c r="ST10"/>
-      <c r="SU10"/>
-      <c r="SV10"/>
-      <c r="SW10"/>
-      <c r="SX10"/>
-      <c r="SY10"/>
-      <c r="SZ10"/>
-      <c r="TA10"/>
-      <c r="TB10"/>
-      <c r="TC10"/>
-      <c r="TD10"/>
-      <c r="TE10"/>
-      <c r="TF10"/>
-      <c r="TG10"/>
-      <c r="TH10"/>
-      <c r="TI10"/>
-      <c r="TJ10"/>
-      <c r="TK10"/>
-      <c r="TL10"/>
-      <c r="TM10"/>
-      <c r="TN10"/>
-      <c r="TO10"/>
-      <c r="TP10"/>
-      <c r="TQ10"/>
-      <c r="TR10"/>
-      <c r="TS10"/>
-      <c r="TT10"/>
-      <c r="TU10"/>
-      <c r="TV10"/>
-      <c r="TW10"/>
-      <c r="TX10"/>
-      <c r="TY10"/>
-      <c r="TZ10"/>
-      <c r="UA10"/>
-      <c r="UB10"/>
-      <c r="UC10"/>
-      <c r="UD10"/>
-      <c r="UE10"/>
-      <c r="UF10"/>
-      <c r="UG10"/>
-      <c r="UH10"/>
-      <c r="UI10"/>
-      <c r="UJ10"/>
-      <c r="UK10"/>
-      <c r="UL10"/>
-      <c r="UM10"/>
-      <c r="UN10"/>
-      <c r="UO10"/>
-      <c r="UP10"/>
-      <c r="UQ10"/>
-      <c r="UR10"/>
-      <c r="US10"/>
-      <c r="UT10"/>
-      <c r="UU10"/>
-      <c r="UV10"/>
-      <c r="UW10"/>
-      <c r="UX10"/>
-      <c r="UY10"/>
-      <c r="UZ10"/>
-      <c r="VA10"/>
-      <c r="VB10"/>
-      <c r="VC10"/>
-      <c r="VD10"/>
-      <c r="VE10"/>
-      <c r="VF10"/>
-      <c r="VG10"/>
-      <c r="VH10"/>
-      <c r="VI10"/>
-      <c r="VJ10"/>
-      <c r="VK10"/>
-      <c r="VL10"/>
-      <c r="VM10"/>
-      <c r="VN10"/>
-      <c r="VO10"/>
-      <c r="VP10"/>
-      <c r="VQ10"/>
-      <c r="VR10"/>
-      <c r="VS10"/>
-      <c r="VT10"/>
-      <c r="VU10"/>
-      <c r="VV10"/>
-      <c r="VW10"/>
-      <c r="VX10"/>
-      <c r="VY10"/>
-      <c r="VZ10"/>
-      <c r="WA10"/>
-      <c r="WB10"/>
-      <c r="WC10"/>
-      <c r="WD10"/>
-      <c r="WE10"/>
-      <c r="WF10"/>
-      <c r="WG10"/>
-      <c r="WH10"/>
-      <c r="WI10"/>
-      <c r="WJ10"/>
-      <c r="WK10"/>
-      <c r="WL10"/>
-      <c r="WM10"/>
-      <c r="WN10"/>
-      <c r="WO10"/>
-      <c r="WP10"/>
-      <c r="WQ10"/>
-      <c r="WR10"/>
-      <c r="WS10"/>
-      <c r="WT10"/>
-      <c r="WU10"/>
-      <c r="WV10"/>
-      <c r="WW10"/>
-      <c r="WX10"/>
-      <c r="WY10"/>
-      <c r="WZ10"/>
-      <c r="XA10"/>
-      <c r="XB10"/>
-      <c r="XC10"/>
-      <c r="XD10"/>
-      <c r="XE10"/>
-      <c r="XF10"/>
-      <c r="XG10"/>
-      <c r="XH10"/>
-      <c r="XI10"/>
-      <c r="XJ10"/>
-      <c r="XK10"/>
-      <c r="XL10"/>
-      <c r="XM10"/>
-      <c r="XN10"/>
-      <c r="XO10"/>
-      <c r="XP10"/>
-      <c r="XQ10"/>
-      <c r="XR10"/>
-      <c r="XS10"/>
-      <c r="XT10"/>
-      <c r="XU10"/>
-      <c r="XV10"/>
-      <c r="XW10"/>
-      <c r="XX10"/>
-      <c r="XY10"/>
-      <c r="XZ10"/>
-      <c r="YA10"/>
-      <c r="YB10"/>
-      <c r="YC10"/>
-      <c r="YD10"/>
-      <c r="YE10"/>
-      <c r="YF10"/>
-      <c r="YG10"/>
-      <c r="YH10"/>
-      <c r="YI10"/>
-      <c r="YJ10"/>
-      <c r="YK10"/>
-      <c r="YL10"/>
-      <c r="YM10"/>
-      <c r="YN10"/>
-      <c r="YO10"/>
-      <c r="YP10"/>
-      <c r="YQ10"/>
-      <c r="YR10"/>
-      <c r="YS10"/>
-      <c r="YT10"/>
-      <c r="YU10"/>
-      <c r="YV10"/>
-      <c r="YW10"/>
-      <c r="YX10"/>
-      <c r="YY10"/>
-      <c r="YZ10"/>
-      <c r="ZA10"/>
-      <c r="ZB10"/>
-      <c r="ZC10"/>
-      <c r="ZD10"/>
-      <c r="ZE10"/>
-      <c r="ZF10"/>
-      <c r="ZG10"/>
-      <c r="ZH10"/>
-      <c r="ZI10"/>
-      <c r="ZJ10"/>
-      <c r="ZK10"/>
-      <c r="ZL10"/>
-      <c r="ZM10"/>
-      <c r="ZN10"/>
-      <c r="ZO10"/>
-      <c r="ZP10"/>
-      <c r="ZQ10"/>
-      <c r="ZR10"/>
-      <c r="ZS10"/>
-      <c r="ZT10"/>
-      <c r="ZU10"/>
-      <c r="ZV10"/>
-      <c r="ZW10"/>
-      <c r="ZX10"/>
-      <c r="ZY10"/>
-      <c r="ZZ10"/>
-      <c r="AAA10" s="5"/>
-    </row>
-    <row r="11" spans="1:703">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
-      <c r="AE11"/>
-      <c r="AF11"/>
-      <c r="AG11"/>
-      <c r="AH11"/>
-      <c r="AI11"/>
-      <c r="AJ11"/>
-      <c r="AK11"/>
-      <c r="AL11"/>
-      <c r="AM11"/>
-      <c r="AN11"/>
-      <c r="AO11"/>
-      <c r="AP11"/>
-      <c r="AQ11"/>
-      <c r="AR11"/>
-      <c r="AS11"/>
-      <c r="AT11"/>
-      <c r="AU11"/>
-      <c r="AV11"/>
-      <c r="AW11"/>
-      <c r="AX11"/>
-      <c r="AY11"/>
-      <c r="AZ11"/>
-      <c r="BA11"/>
-      <c r="BB11"/>
-      <c r="BC11"/>
-      <c r="BD11"/>
-      <c r="BE11"/>
-      <c r="BF11"/>
-      <c r="BG11"/>
-      <c r="BH11"/>
-      <c r="BI11"/>
-      <c r="BJ11"/>
-      <c r="BK11"/>
-      <c r="BL11"/>
-      <c r="BM11"/>
-      <c r="BN11"/>
-      <c r="BO11"/>
-      <c r="BP11"/>
-      <c r="BQ11"/>
-      <c r="BR11"/>
-      <c r="BS11"/>
-      <c r="BT11"/>
-      <c r="BU11"/>
-      <c r="BV11"/>
-      <c r="BW11"/>
-      <c r="BX11"/>
-      <c r="BY11"/>
-      <c r="BZ11"/>
-      <c r="CA11"/>
-      <c r="CB11"/>
-      <c r="CC11"/>
-      <c r="CD11"/>
-      <c r="CE11"/>
-      <c r="CF11"/>
-      <c r="CG11"/>
-      <c r="CH11"/>
-      <c r="CI11"/>
-      <c r="CJ11"/>
-      <c r="CK11"/>
-      <c r="CL11"/>
-      <c r="CM11"/>
-      <c r="CN11"/>
-      <c r="CO11"/>
-      <c r="CP11"/>
-      <c r="CQ11"/>
-      <c r="CR11"/>
-      <c r="CS11"/>
-      <c r="CT11"/>
-      <c r="CU11"/>
-      <c r="CV11"/>
-      <c r="CW11"/>
-      <c r="CX11"/>
-      <c r="CY11"/>
-      <c r="CZ11"/>
-      <c r="DA11"/>
-      <c r="DB11"/>
-      <c r="DC11"/>
-      <c r="DD11"/>
-      <c r="DE11"/>
-      <c r="DF11"/>
-      <c r="DG11"/>
-      <c r="DH11"/>
-      <c r="DI11"/>
-      <c r="DJ11"/>
-      <c r="DK11"/>
-      <c r="DL11"/>
-      <c r="DM11"/>
-      <c r="DN11"/>
-      <c r="DO11"/>
-      <c r="DP11"/>
-      <c r="DQ11"/>
-      <c r="DR11"/>
-      <c r="DS11"/>
-      <c r="DT11"/>
-      <c r="DU11"/>
-      <c r="DV11"/>
-      <c r="DW11"/>
-      <c r="DX11"/>
-      <c r="DY11"/>
-      <c r="DZ11"/>
-      <c r="EA11"/>
-      <c r="EB11"/>
-      <c r="EC11"/>
-      <c r="ED11"/>
-      <c r="EE11"/>
-      <c r="EF11"/>
-      <c r="EG11"/>
-      <c r="EH11"/>
-      <c r="EI11"/>
-      <c r="EJ11"/>
-      <c r="EK11"/>
-      <c r="EL11"/>
-      <c r="EM11"/>
-      <c r="EN11"/>
-      <c r="EO11"/>
-      <c r="EP11"/>
-      <c r="EQ11"/>
-      <c r="ER11"/>
-      <c r="ES11"/>
-      <c r="ET11"/>
-      <c r="EU11"/>
-      <c r="EV11"/>
-      <c r="EW11"/>
-      <c r="EX11"/>
-      <c r="EY11"/>
-      <c r="EZ11"/>
-      <c r="FA11"/>
-      <c r="FB11"/>
-      <c r="FC11"/>
-      <c r="FD11"/>
-      <c r="FE11"/>
-      <c r="FF11"/>
-      <c r="FG11"/>
-      <c r="FH11"/>
-      <c r="FI11"/>
-      <c r="FJ11"/>
-      <c r="FK11"/>
-      <c r="FL11"/>
-      <c r="FM11"/>
-      <c r="FN11"/>
-      <c r="FO11"/>
-      <c r="FP11"/>
-      <c r="FQ11"/>
-      <c r="FR11"/>
-      <c r="FS11"/>
-      <c r="FT11"/>
-      <c r="FU11"/>
-      <c r="FV11"/>
-      <c r="FW11"/>
-      <c r="FX11"/>
-      <c r="FY11"/>
-      <c r="FZ11"/>
-      <c r="GA11"/>
-      <c r="GB11"/>
-      <c r="GC11"/>
-      <c r="GD11"/>
-      <c r="GE11"/>
-      <c r="GF11"/>
-      <c r="GG11"/>
-      <c r="GH11"/>
-      <c r="GI11"/>
-      <c r="GJ11"/>
-      <c r="GK11"/>
-      <c r="GL11"/>
-      <c r="GM11"/>
-      <c r="GN11"/>
-      <c r="GO11"/>
-      <c r="GP11"/>
-      <c r="GQ11"/>
-      <c r="GR11"/>
-      <c r="GS11"/>
-      <c r="GT11"/>
-      <c r="GU11"/>
-      <c r="GV11"/>
-      <c r="GW11"/>
-      <c r="GX11"/>
-      <c r="GY11"/>
-      <c r="GZ11"/>
-      <c r="HA11"/>
-      <c r="HB11"/>
-      <c r="HC11"/>
-      <c r="HD11"/>
-      <c r="HE11"/>
-      <c r="HF11"/>
-      <c r="HG11"/>
-      <c r="HH11"/>
-      <c r="HI11"/>
-      <c r="HJ11"/>
-      <c r="HK11"/>
-      <c r="HL11"/>
-      <c r="HM11"/>
-      <c r="HN11"/>
-      <c r="HO11"/>
-      <c r="HP11"/>
-      <c r="HQ11"/>
-      <c r="HR11"/>
-      <c r="HS11"/>
-      <c r="HT11"/>
-      <c r="HU11"/>
-      <c r="HV11"/>
-      <c r="HW11"/>
-      <c r="HX11"/>
-      <c r="HY11"/>
-      <c r="HZ11"/>
-      <c r="IA11"/>
-      <c r="IB11"/>
-      <c r="IC11"/>
-      <c r="ID11"/>
-      <c r="IE11"/>
-      <c r="IF11"/>
-      <c r="IG11"/>
-      <c r="IH11"/>
-      <c r="II11"/>
-      <c r="IJ11"/>
-      <c r="IK11"/>
-      <c r="IL11"/>
-      <c r="IM11"/>
-      <c r="IN11"/>
-      <c r="IO11"/>
-      <c r="IP11"/>
-      <c r="IQ11"/>
-      <c r="IR11"/>
-      <c r="IS11"/>
-      <c r="IT11"/>
-      <c r="IU11"/>
-      <c r="IV11"/>
-      <c r="IW11"/>
-      <c r="IX11"/>
-      <c r="IY11"/>
-      <c r="IZ11"/>
-      <c r="JA11"/>
-      <c r="JB11"/>
-      <c r="JC11"/>
-      <c r="JD11"/>
-      <c r="JE11"/>
-      <c r="JF11"/>
-      <c r="JG11"/>
-      <c r="JH11"/>
-      <c r="JI11"/>
-      <c r="JJ11"/>
-      <c r="JK11"/>
-      <c r="JL11"/>
-      <c r="JM11"/>
-      <c r="JN11"/>
-      <c r="JO11"/>
-      <c r="JP11"/>
-      <c r="JQ11"/>
-      <c r="JR11"/>
-      <c r="JS11"/>
-      <c r="JT11"/>
-      <c r="JU11"/>
-      <c r="JV11"/>
-      <c r="JW11"/>
-      <c r="JX11"/>
-      <c r="JY11"/>
-      <c r="JZ11"/>
-      <c r="KA11"/>
-      <c r="KB11"/>
-      <c r="KC11"/>
-      <c r="KD11"/>
-      <c r="KE11"/>
-      <c r="KF11"/>
-      <c r="KG11"/>
-      <c r="KH11"/>
-      <c r="KI11"/>
-      <c r="KJ11"/>
-      <c r="KK11"/>
-      <c r="KL11"/>
-      <c r="KM11"/>
-      <c r="KN11"/>
-      <c r="KO11"/>
-      <c r="KP11"/>
-      <c r="KQ11"/>
-      <c r="KR11"/>
-      <c r="KS11"/>
-      <c r="KT11"/>
-      <c r="KU11"/>
-      <c r="KV11"/>
-      <c r="KW11"/>
-      <c r="KX11"/>
-      <c r="KY11"/>
-      <c r="KZ11"/>
-      <c r="LA11"/>
-      <c r="LB11"/>
-      <c r="LC11"/>
-      <c r="LD11"/>
-      <c r="LE11"/>
-      <c r="LF11"/>
-      <c r="LG11"/>
-      <c r="LH11"/>
-      <c r="LI11"/>
-      <c r="LJ11"/>
-      <c r="LK11"/>
-      <c r="LL11"/>
-      <c r="LM11"/>
-      <c r="LN11"/>
-      <c r="LO11"/>
-      <c r="LP11"/>
-      <c r="LQ11"/>
-      <c r="LR11"/>
-      <c r="LS11"/>
-      <c r="LT11"/>
-      <c r="LU11"/>
-      <c r="LV11"/>
-      <c r="LW11"/>
-      <c r="LX11"/>
-      <c r="LY11"/>
-      <c r="LZ11"/>
-      <c r="MA11"/>
-      <c r="MB11"/>
-      <c r="MC11"/>
-      <c r="MD11"/>
-      <c r="ME11"/>
-      <c r="MF11"/>
-      <c r="MG11"/>
-      <c r="MH11"/>
-      <c r="MI11"/>
-      <c r="MJ11"/>
-      <c r="MK11"/>
-      <c r="ML11"/>
-      <c r="MM11"/>
-      <c r="MN11"/>
-      <c r="MO11"/>
-      <c r="MP11"/>
-      <c r="MQ11"/>
-      <c r="MR11"/>
-      <c r="MS11"/>
-      <c r="MT11"/>
-      <c r="MU11"/>
-      <c r="MV11"/>
-      <c r="MW11"/>
-      <c r="MX11"/>
-      <c r="MY11"/>
-      <c r="MZ11"/>
-      <c r="NA11"/>
-      <c r="NB11"/>
-      <c r="NC11"/>
-      <c r="ND11"/>
-      <c r="NE11"/>
-      <c r="NF11"/>
-      <c r="NG11"/>
-      <c r="NH11"/>
-      <c r="NI11"/>
-      <c r="NJ11"/>
-      <c r="NK11"/>
-      <c r="NL11"/>
-      <c r="NM11"/>
-      <c r="NN11"/>
-      <c r="NO11"/>
-      <c r="NP11"/>
-      <c r="NQ11"/>
-      <c r="NR11"/>
-      <c r="NS11"/>
-      <c r="NT11"/>
-      <c r="NU11"/>
-      <c r="NV11"/>
-      <c r="NW11"/>
-      <c r="NX11"/>
-      <c r="NY11"/>
-      <c r="NZ11"/>
-      <c r="OA11"/>
-      <c r="OB11"/>
-      <c r="OC11"/>
-      <c r="OD11"/>
-      <c r="OE11"/>
-      <c r="OF11"/>
-      <c r="OG11"/>
-      <c r="OH11"/>
-      <c r="OI11"/>
-      <c r="OJ11"/>
-      <c r="OK11"/>
-      <c r="OL11"/>
-      <c r="OM11"/>
-      <c r="ON11"/>
-      <c r="OO11"/>
-      <c r="OP11"/>
-      <c r="OQ11"/>
-      <c r="OR11"/>
-      <c r="OS11"/>
-      <c r="OT11"/>
-      <c r="OU11"/>
-      <c r="OV11"/>
-      <c r="OW11"/>
-      <c r="OX11"/>
-      <c r="OY11"/>
-      <c r="OZ11"/>
-      <c r="PA11"/>
-      <c r="PB11"/>
-      <c r="PC11"/>
-      <c r="PD11"/>
-      <c r="PE11"/>
-      <c r="PF11"/>
-      <c r="PG11"/>
-      <c r="PH11"/>
-      <c r="PI11"/>
-      <c r="PJ11"/>
-      <c r="PK11"/>
-      <c r="PL11"/>
-      <c r="PM11"/>
-      <c r="PN11"/>
-      <c r="PO11"/>
-      <c r="PP11"/>
-      <c r="PQ11"/>
-      <c r="PR11"/>
-      <c r="PS11"/>
-      <c r="PT11"/>
-      <c r="PU11"/>
-      <c r="PV11"/>
-      <c r="PW11"/>
-      <c r="PX11"/>
-      <c r="PY11"/>
-      <c r="PZ11"/>
-      <c r="QA11"/>
-      <c r="QB11"/>
-      <c r="QC11"/>
-      <c r="QD11"/>
-      <c r="QE11"/>
-      <c r="QF11"/>
-      <c r="QG11"/>
-      <c r="QH11"/>
-      <c r="QI11"/>
-      <c r="QJ11"/>
-      <c r="QK11"/>
-      <c r="QL11"/>
-      <c r="QM11"/>
-      <c r="QN11"/>
-      <c r="QO11"/>
-      <c r="QP11"/>
-      <c r="QQ11"/>
-      <c r="QR11"/>
-      <c r="QS11"/>
-      <c r="QT11"/>
-      <c r="QU11"/>
-      <c r="QV11"/>
-      <c r="QW11"/>
-      <c r="QX11"/>
-      <c r="QY11"/>
-      <c r="QZ11"/>
-      <c r="RA11"/>
-      <c r="RB11"/>
-      <c r="RC11"/>
-      <c r="RD11"/>
-      <c r="RE11"/>
-      <c r="RF11"/>
-      <c r="RG11"/>
-      <c r="RH11"/>
-      <c r="RI11"/>
-      <c r="RJ11"/>
-      <c r="RK11"/>
-      <c r="RL11"/>
-      <c r="RM11"/>
-      <c r="RN11"/>
-      <c r="RO11"/>
-      <c r="RP11"/>
-      <c r="RQ11"/>
-      <c r="RR11"/>
-      <c r="RS11"/>
-      <c r="RT11"/>
-      <c r="RU11"/>
-      <c r="RV11"/>
-      <c r="RW11"/>
-      <c r="RX11"/>
-      <c r="RY11"/>
-      <c r="RZ11"/>
-      <c r="SA11"/>
-      <c r="SB11"/>
-      <c r="SC11"/>
-      <c r="SD11"/>
-      <c r="SE11"/>
-      <c r="SF11"/>
-      <c r="SG11"/>
-      <c r="SH11"/>
-      <c r="SI11"/>
-      <c r="SJ11"/>
-      <c r="SK11"/>
-      <c r="SL11"/>
-      <c r="SM11"/>
-      <c r="SN11"/>
-      <c r="SO11"/>
-      <c r="SP11"/>
-      <c r="SQ11"/>
-      <c r="SR11"/>
-      <c r="SS11"/>
-      <c r="ST11"/>
-      <c r="SU11"/>
-      <c r="SV11"/>
-      <c r="SW11"/>
-      <c r="SX11"/>
-      <c r="SY11"/>
-      <c r="SZ11"/>
-      <c r="TA11"/>
-      <c r="TB11"/>
-      <c r="TC11"/>
-      <c r="TD11"/>
-      <c r="TE11"/>
-      <c r="TF11"/>
-      <c r="TG11"/>
-      <c r="TH11"/>
-      <c r="TI11"/>
-      <c r="TJ11"/>
-      <c r="TK11"/>
-      <c r="TL11"/>
-      <c r="TM11"/>
-      <c r="TN11"/>
-      <c r="TO11"/>
-      <c r="TP11"/>
-      <c r="TQ11"/>
-      <c r="TR11"/>
-      <c r="TS11"/>
-      <c r="TT11"/>
-      <c r="TU11"/>
-      <c r="TV11"/>
-      <c r="TW11"/>
-      <c r="TX11"/>
-      <c r="TY11"/>
-      <c r="TZ11"/>
-      <c r="UA11"/>
-      <c r="UB11"/>
-      <c r="UC11"/>
-      <c r="UD11"/>
-      <c r="UE11"/>
-      <c r="UF11"/>
-      <c r="UG11"/>
-      <c r="UH11"/>
-      <c r="UI11"/>
-      <c r="UJ11"/>
-      <c r="UK11"/>
-      <c r="UL11"/>
-      <c r="UM11"/>
-      <c r="UN11"/>
-      <c r="UO11"/>
-      <c r="UP11"/>
-      <c r="UQ11"/>
-      <c r="UR11"/>
-      <c r="US11"/>
-      <c r="UT11"/>
-      <c r="UU11"/>
-      <c r="UV11"/>
-      <c r="UW11"/>
-      <c r="UX11"/>
-      <c r="UY11"/>
-      <c r="UZ11"/>
-      <c r="VA11"/>
-      <c r="VB11"/>
-      <c r="VC11"/>
-      <c r="VD11"/>
-      <c r="VE11"/>
-      <c r="VF11"/>
-      <c r="VG11"/>
-      <c r="VH11"/>
-      <c r="VI11"/>
-      <c r="VJ11"/>
-      <c r="VK11"/>
-      <c r="VL11"/>
-      <c r="VM11"/>
-      <c r="VN11"/>
-      <c r="VO11"/>
-      <c r="VP11"/>
-      <c r="VQ11"/>
-      <c r="VR11"/>
-      <c r="VS11"/>
-      <c r="VT11"/>
-      <c r="VU11"/>
-      <c r="VV11"/>
-      <c r="VW11"/>
-      <c r="VX11"/>
-      <c r="VY11"/>
-      <c r="VZ11"/>
-      <c r="WA11"/>
-      <c r="WB11"/>
-      <c r="WC11"/>
-      <c r="WD11"/>
-      <c r="WE11"/>
-      <c r="WF11"/>
-      <c r="WG11"/>
-      <c r="WH11"/>
-      <c r="WI11"/>
-      <c r="WJ11"/>
-      <c r="WK11"/>
-      <c r="WL11"/>
-      <c r="WM11"/>
-      <c r="WN11"/>
-      <c r="WO11"/>
-      <c r="WP11"/>
-      <c r="WQ11"/>
-      <c r="WR11"/>
-      <c r="WS11"/>
-      <c r="WT11"/>
-      <c r="WU11"/>
-      <c r="WV11"/>
-      <c r="WW11"/>
-      <c r="WX11"/>
-      <c r="WY11"/>
-      <c r="WZ11"/>
-      <c r="XA11"/>
-      <c r="XB11"/>
-      <c r="XC11"/>
-      <c r="XD11"/>
-      <c r="XE11"/>
-      <c r="XF11"/>
-      <c r="XG11"/>
-      <c r="XH11"/>
-      <c r="XI11"/>
-      <c r="XJ11"/>
-      <c r="XK11"/>
-      <c r="XL11"/>
-      <c r="XM11"/>
-      <c r="XN11"/>
-      <c r="XO11"/>
-      <c r="XP11"/>
-      <c r="XQ11"/>
-      <c r="XR11"/>
-      <c r="XS11"/>
-      <c r="XT11"/>
-      <c r="XU11"/>
-      <c r="XV11"/>
-      <c r="XW11"/>
-      <c r="XX11"/>
-      <c r="XY11"/>
-      <c r="XZ11"/>
-      <c r="YA11"/>
-      <c r="YB11"/>
-      <c r="YC11"/>
-      <c r="YD11"/>
-      <c r="YE11"/>
-      <c r="YF11"/>
-      <c r="YG11"/>
-      <c r="YH11"/>
-      <c r="YI11"/>
-      <c r="YJ11"/>
-      <c r="YK11"/>
-      <c r="YL11"/>
-      <c r="YM11"/>
-      <c r="YN11"/>
-      <c r="YO11"/>
-      <c r="YP11"/>
-      <c r="YQ11"/>
-      <c r="YR11"/>
-      <c r="YS11"/>
-      <c r="YT11"/>
-      <c r="YU11"/>
-      <c r="YV11"/>
-      <c r="YW11"/>
-      <c r="YX11"/>
-      <c r="YY11"/>
-      <c r="YZ11"/>
-      <c r="ZA11"/>
-      <c r="ZB11"/>
-      <c r="ZC11"/>
-      <c r="ZD11"/>
-      <c r="ZE11"/>
-      <c r="ZF11"/>
-      <c r="ZG11"/>
-      <c r="ZH11"/>
-      <c r="ZI11"/>
-      <c r="ZJ11"/>
-      <c r="ZK11"/>
-      <c r="ZL11"/>
-      <c r="ZM11"/>
-      <c r="ZN11"/>
-      <c r="ZO11"/>
-      <c r="ZP11"/>
-      <c r="ZQ11"/>
-      <c r="ZR11"/>
-      <c r="ZS11"/>
-      <c r="ZT11"/>
-      <c r="ZU11"/>
-      <c r="ZV11"/>
-      <c r="ZW11"/>
-      <c r="ZX11"/>
-      <c r="ZY11"/>
-      <c r="ZZ11"/>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <conditionalFormatting sqref="A1:A11 A13:A1048576">
-    <cfRule type="beginsWith" dxfId="21" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+  <conditionalFormatting sqref="A11:A1048576 A1:A9">
+    <cfRule type="beginsWith" dxfId="14" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="20" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="13" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="29" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B11 B13:B1048576">
-    <cfRule type="expression" dxfId="28" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="B11:B1048576 B1:B9">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="27" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="10">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="beginsWith" dxfId="26" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
-      <formula>LEFT(A12,LEN("sentry.scope."))="sentry.scope."</formula>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+      <formula>LEFT(A10,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="25" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
-      <formula>LEFT(A12,LEN("sentry."))="sentry."</formula>
+    <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+      <formula>LEFT(A10,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="24" priority="3" stopIfTrue="1">
-      <formula>LEN(TRIM(A12))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="22" priority="5">
-      <formula>LEN(TRIM(B12))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+      <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8799,7 +7184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C038B24C-D2C7-7D40-9BBE-3AA87580F7E7}">
   <dimension ref="A1:AAA6"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -8812,10 +7197,10 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -9521,10 +7906,10 @@
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -10230,10 +8615,10 @@
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -10939,10 +9324,10 @@
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -11647,10 +10032,10 @@
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -12355,7 +10740,7 @@
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -13064,21 +11449,21 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A6 A8:A1048576">
-    <cfRule type="beginsWith" dxfId="6" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="4" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="5" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="3" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B6 B8:B1048576">
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="7" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/artifact/data/ws-02.data.xlsx
+++ b/artifact/data/ws-02.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1817311F-971A-F04C-9FF8-F4C36AAA2298}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5763E6-F1C8-064E-9AA4-2C184567BF70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-21160" windowWidth="38400" windowHeight="7040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="32000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -55,18 +55,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>target url</t>
@@ -115,12 +109,6 @@
   </si>
   <si>
     <t>nexial.scope.iteration</t>
-  </si>
-  <si>
-    <t>nexial.failFast</t>
-  </si>
-  <si>
-    <t>nexial.textDelim</t>
   </si>
   <si>
     <t>nexial.verbose</t>
@@ -740,11 +728,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAA9"/>
+  <dimension ref="A1:AAA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -755,9 +741,9 @@
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703">
+    <row r="1" spans="1:703" ht="21" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1464,12 +1450,12 @@
       <c r="ZZ1"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="1:703">
+    <row r="2" spans="1:703" ht="21" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -2173,9 +2159,9 @@
       <c r="ZZ2"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703">
+    <row r="3" spans="1:703" ht="21" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -2882,12 +2868,12 @@
       <c r="ZZ3"/>
       <c r="AAA3" s="5"/>
     </row>
-    <row r="4" spans="1:703">
+    <row r="4" spans="1:703" ht="21" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -3591,12 +3577,12 @@
       <c r="ZZ4"/>
       <c r="AAA4" s="5"/>
     </row>
-    <row r="5" spans="1:703">
+    <row r="5" spans="1:703" ht="21" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -4300,12 +4286,12 @@
       <c r="ZZ5"/>
       <c r="AAA5" s="5"/>
     </row>
-    <row r="6" spans="1:703">
+    <row r="6" spans="1:703" ht="21" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -4513,7 +4499,7 @@
       <c r="GX6"/>
       <c r="GY6"/>
       <c r="GZ6"/>
-      <c r="HA6" s="4"/>
+      <c r="HA6"/>
       <c r="HB6"/>
       <c r="HC6"/>
       <c r="HD6"/>
@@ -5007,2137 +4993,51 @@
       <c r="ZX6"/>
       <c r="ZY6"/>
       <c r="ZZ6"/>
-      <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="1:703">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
-      <c r="AF7"/>
-      <c r="AG7"/>
-      <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7"/>
-      <c r="AK7"/>
-      <c r="AL7"/>
-      <c r="AM7"/>
-      <c r="AN7"/>
-      <c r="AO7"/>
-      <c r="AP7"/>
-      <c r="AQ7"/>
-      <c r="AR7"/>
-      <c r="AS7"/>
-      <c r="AT7"/>
-      <c r="AU7"/>
-      <c r="AV7"/>
-      <c r="AW7"/>
-      <c r="AX7"/>
-      <c r="AY7"/>
-      <c r="AZ7"/>
-      <c r="BA7"/>
-      <c r="BB7"/>
-      <c r="BC7"/>
-      <c r="BD7"/>
-      <c r="BE7"/>
-      <c r="BF7"/>
-      <c r="BG7"/>
-      <c r="BH7"/>
-      <c r="BI7"/>
-      <c r="BJ7"/>
-      <c r="BK7"/>
-      <c r="BL7"/>
-      <c r="BM7"/>
-      <c r="BN7"/>
-      <c r="BO7"/>
-      <c r="BP7"/>
-      <c r="BQ7"/>
-      <c r="BR7"/>
-      <c r="BS7"/>
-      <c r="BT7"/>
-      <c r="BU7"/>
-      <c r="BV7"/>
-      <c r="BW7"/>
-      <c r="BX7"/>
-      <c r="BY7"/>
-      <c r="BZ7"/>
-      <c r="CA7"/>
-      <c r="CB7"/>
-      <c r="CC7"/>
-      <c r="CD7"/>
-      <c r="CE7"/>
-      <c r="CF7"/>
-      <c r="CG7"/>
-      <c r="CH7"/>
-      <c r="CI7"/>
-      <c r="CJ7"/>
-      <c r="CK7"/>
-      <c r="CL7"/>
-      <c r="CM7"/>
-      <c r="CN7"/>
-      <c r="CO7"/>
-      <c r="CP7"/>
-      <c r="CQ7"/>
-      <c r="CR7"/>
-      <c r="CS7"/>
-      <c r="CT7"/>
-      <c r="CU7"/>
-      <c r="CV7"/>
-      <c r="CW7"/>
-      <c r="CX7"/>
-      <c r="CY7"/>
-      <c r="CZ7"/>
-      <c r="DA7"/>
-      <c r="DB7"/>
-      <c r="DC7"/>
-      <c r="DD7"/>
-      <c r="DE7"/>
-      <c r="DF7"/>
-      <c r="DG7"/>
-      <c r="DH7"/>
-      <c r="DI7"/>
-      <c r="DJ7"/>
-      <c r="DK7"/>
-      <c r="DL7"/>
-      <c r="DM7"/>
-      <c r="DN7"/>
-      <c r="DO7"/>
-      <c r="DP7"/>
-      <c r="DQ7"/>
-      <c r="DR7"/>
-      <c r="DS7"/>
-      <c r="DT7"/>
-      <c r="DU7"/>
-      <c r="DV7"/>
-      <c r="DW7"/>
-      <c r="DX7"/>
-      <c r="DY7"/>
-      <c r="DZ7"/>
-      <c r="EA7"/>
-      <c r="EB7"/>
-      <c r="EC7"/>
-      <c r="ED7"/>
-      <c r="EE7"/>
-      <c r="EF7"/>
-      <c r="EG7"/>
-      <c r="EH7"/>
-      <c r="EI7"/>
-      <c r="EJ7"/>
-      <c r="EK7"/>
-      <c r="EL7"/>
-      <c r="EM7"/>
-      <c r="EN7"/>
-      <c r="EO7"/>
-      <c r="EP7"/>
-      <c r="EQ7"/>
-      <c r="ER7"/>
-      <c r="ES7"/>
-      <c r="ET7"/>
-      <c r="EU7"/>
-      <c r="EV7"/>
-      <c r="EW7"/>
-      <c r="EX7"/>
-      <c r="EY7"/>
-      <c r="EZ7"/>
-      <c r="FA7"/>
-      <c r="FB7"/>
-      <c r="FC7"/>
-      <c r="FD7"/>
-      <c r="FE7"/>
-      <c r="FF7"/>
-      <c r="FG7"/>
-      <c r="FH7"/>
-      <c r="FI7"/>
-      <c r="FJ7"/>
-      <c r="FK7"/>
-      <c r="FL7"/>
-      <c r="FM7"/>
-      <c r="FN7"/>
-      <c r="FO7"/>
-      <c r="FP7"/>
-      <c r="FQ7"/>
-      <c r="FR7"/>
-      <c r="FS7"/>
-      <c r="FT7"/>
-      <c r="FU7"/>
-      <c r="FV7"/>
-      <c r="FW7"/>
-      <c r="FX7"/>
-      <c r="FY7"/>
-      <c r="FZ7"/>
-      <c r="GA7"/>
-      <c r="GB7"/>
-      <c r="GC7"/>
-      <c r="GD7"/>
-      <c r="GE7"/>
-      <c r="GF7"/>
-      <c r="GG7"/>
-      <c r="GH7"/>
-      <c r="GI7"/>
-      <c r="GJ7"/>
-      <c r="GK7"/>
-      <c r="GL7"/>
-      <c r="GM7"/>
-      <c r="GN7"/>
-      <c r="GO7"/>
-      <c r="GP7"/>
-      <c r="GQ7"/>
-      <c r="GR7"/>
-      <c r="GS7"/>
-      <c r="GT7"/>
-      <c r="GU7"/>
-      <c r="GV7"/>
-      <c r="GW7"/>
-      <c r="GX7"/>
-      <c r="GY7"/>
-      <c r="GZ7"/>
-      <c r="HA7" s="4"/>
-      <c r="HB7"/>
-      <c r="HC7"/>
-      <c r="HD7"/>
-      <c r="HE7"/>
-      <c r="HF7"/>
-      <c r="HG7"/>
-      <c r="HH7"/>
-      <c r="HI7"/>
-      <c r="HJ7"/>
-      <c r="HK7"/>
-      <c r="HL7"/>
-      <c r="HM7"/>
-      <c r="HN7"/>
-      <c r="HO7"/>
-      <c r="HP7"/>
-      <c r="HQ7"/>
-      <c r="HR7"/>
-      <c r="HS7"/>
-      <c r="HT7"/>
-      <c r="HU7"/>
-      <c r="HV7"/>
-      <c r="HW7"/>
-      <c r="HX7"/>
-      <c r="HY7"/>
-      <c r="HZ7"/>
-      <c r="IA7"/>
-      <c r="IB7"/>
-      <c r="IC7"/>
-      <c r="ID7"/>
-      <c r="IE7"/>
-      <c r="IF7"/>
-      <c r="IG7"/>
-      <c r="IH7"/>
-      <c r="II7"/>
-      <c r="IJ7"/>
-      <c r="IK7"/>
-      <c r="IL7"/>
-      <c r="IM7"/>
-      <c r="IN7"/>
-      <c r="IO7"/>
-      <c r="IP7"/>
-      <c r="IQ7"/>
-      <c r="IR7"/>
-      <c r="IS7"/>
-      <c r="IT7"/>
-      <c r="IU7"/>
-      <c r="IV7"/>
-      <c r="IW7"/>
-      <c r="IX7"/>
-      <c r="IY7"/>
-      <c r="IZ7"/>
-      <c r="JA7"/>
-      <c r="JB7"/>
-      <c r="JC7"/>
-      <c r="JD7"/>
-      <c r="JE7"/>
-      <c r="JF7"/>
-      <c r="JG7"/>
-      <c r="JH7"/>
-      <c r="JI7"/>
-      <c r="JJ7"/>
-      <c r="JK7"/>
-      <c r="JL7"/>
-      <c r="JM7"/>
-      <c r="JN7"/>
-      <c r="JO7"/>
-      <c r="JP7"/>
-      <c r="JQ7"/>
-      <c r="JR7"/>
-      <c r="JS7"/>
-      <c r="JT7"/>
-      <c r="JU7"/>
-      <c r="JV7"/>
-      <c r="JW7"/>
-      <c r="JX7"/>
-      <c r="JY7"/>
-      <c r="JZ7"/>
-      <c r="KA7"/>
-      <c r="KB7"/>
-      <c r="KC7"/>
-      <c r="KD7"/>
-      <c r="KE7"/>
-      <c r="KF7"/>
-      <c r="KG7"/>
-      <c r="KH7"/>
-      <c r="KI7"/>
-      <c r="KJ7"/>
-      <c r="KK7"/>
-      <c r="KL7"/>
-      <c r="KM7"/>
-      <c r="KN7"/>
-      <c r="KO7"/>
-      <c r="KP7"/>
-      <c r="KQ7"/>
-      <c r="KR7"/>
-      <c r="KS7"/>
-      <c r="KT7"/>
-      <c r="KU7"/>
-      <c r="KV7"/>
-      <c r="KW7"/>
-      <c r="KX7"/>
-      <c r="KY7"/>
-      <c r="KZ7"/>
-      <c r="LA7"/>
-      <c r="LB7"/>
-      <c r="LC7"/>
-      <c r="LD7"/>
-      <c r="LE7"/>
-      <c r="LF7"/>
-      <c r="LG7"/>
-      <c r="LH7"/>
-      <c r="LI7"/>
-      <c r="LJ7"/>
-      <c r="LK7"/>
-      <c r="LL7"/>
-      <c r="LM7"/>
-      <c r="LN7"/>
-      <c r="LO7"/>
-      <c r="LP7"/>
-      <c r="LQ7"/>
-      <c r="LR7"/>
-      <c r="LS7"/>
-      <c r="LT7"/>
-      <c r="LU7"/>
-      <c r="LV7"/>
-      <c r="LW7"/>
-      <c r="LX7"/>
-      <c r="LY7"/>
-      <c r="LZ7"/>
-      <c r="MA7"/>
-      <c r="MB7"/>
-      <c r="MC7"/>
-      <c r="MD7"/>
-      <c r="ME7"/>
-      <c r="MF7"/>
-      <c r="MG7"/>
-      <c r="MH7"/>
-      <c r="MI7"/>
-      <c r="MJ7"/>
-      <c r="MK7"/>
-      <c r="ML7"/>
-      <c r="MM7"/>
-      <c r="MN7"/>
-      <c r="MO7"/>
-      <c r="MP7"/>
-      <c r="MQ7"/>
-      <c r="MR7"/>
-      <c r="MS7"/>
-      <c r="MT7"/>
-      <c r="MU7"/>
-      <c r="MV7"/>
-      <c r="MW7"/>
-      <c r="MX7"/>
-      <c r="MY7"/>
-      <c r="MZ7"/>
-      <c r="NA7"/>
-      <c r="NB7"/>
-      <c r="NC7"/>
-      <c r="ND7"/>
-      <c r="NE7"/>
-      <c r="NF7"/>
-      <c r="NG7"/>
-      <c r="NH7"/>
-      <c r="NI7"/>
-      <c r="NJ7"/>
-      <c r="NK7"/>
-      <c r="NL7"/>
-      <c r="NM7"/>
-      <c r="NN7"/>
-      <c r="NO7"/>
-      <c r="NP7"/>
-      <c r="NQ7"/>
-      <c r="NR7"/>
-      <c r="NS7"/>
-      <c r="NT7"/>
-      <c r="NU7"/>
-      <c r="NV7"/>
-      <c r="NW7"/>
-      <c r="NX7"/>
-      <c r="NY7"/>
-      <c r="NZ7"/>
-      <c r="OA7"/>
-      <c r="OB7"/>
-      <c r="OC7"/>
-      <c r="OD7"/>
-      <c r="OE7"/>
-      <c r="OF7"/>
-      <c r="OG7"/>
-      <c r="OH7"/>
-      <c r="OI7"/>
-      <c r="OJ7"/>
-      <c r="OK7"/>
-      <c r="OL7"/>
-      <c r="OM7"/>
-      <c r="ON7"/>
-      <c r="OO7"/>
-      <c r="OP7"/>
-      <c r="OQ7"/>
-      <c r="OR7"/>
-      <c r="OS7"/>
-      <c r="OT7"/>
-      <c r="OU7"/>
-      <c r="OV7"/>
-      <c r="OW7"/>
-      <c r="OX7"/>
-      <c r="OY7"/>
-      <c r="OZ7"/>
-      <c r="PA7"/>
-      <c r="PB7"/>
-      <c r="PC7"/>
-      <c r="PD7"/>
-      <c r="PE7"/>
-      <c r="PF7"/>
-      <c r="PG7"/>
-      <c r="PH7"/>
-      <c r="PI7"/>
-      <c r="PJ7"/>
-      <c r="PK7"/>
-      <c r="PL7"/>
-      <c r="PM7"/>
-      <c r="PN7"/>
-      <c r="PO7"/>
-      <c r="PP7"/>
-      <c r="PQ7"/>
-      <c r="PR7"/>
-      <c r="PS7"/>
-      <c r="PT7"/>
-      <c r="PU7"/>
-      <c r="PV7"/>
-      <c r="PW7"/>
-      <c r="PX7"/>
-      <c r="PY7"/>
-      <c r="PZ7"/>
-      <c r="QA7"/>
-      <c r="QB7"/>
-      <c r="QC7"/>
-      <c r="QD7"/>
-      <c r="QE7"/>
-      <c r="QF7"/>
-      <c r="QG7"/>
-      <c r="QH7"/>
-      <c r="QI7"/>
-      <c r="QJ7"/>
-      <c r="QK7"/>
-      <c r="QL7"/>
-      <c r="QM7"/>
-      <c r="QN7"/>
-      <c r="QO7"/>
-      <c r="QP7"/>
-      <c r="QQ7"/>
-      <c r="QR7"/>
-      <c r="QS7"/>
-      <c r="QT7"/>
-      <c r="QU7"/>
-      <c r="QV7"/>
-      <c r="QW7"/>
-      <c r="QX7"/>
-      <c r="QY7"/>
-      <c r="QZ7"/>
-      <c r="RA7"/>
-      <c r="RB7"/>
-      <c r="RC7"/>
-      <c r="RD7"/>
-      <c r="RE7"/>
-      <c r="RF7"/>
-      <c r="RG7"/>
-      <c r="RH7"/>
-      <c r="RI7"/>
-      <c r="RJ7"/>
-      <c r="RK7"/>
-      <c r="RL7"/>
-      <c r="RM7"/>
-      <c r="RN7"/>
-      <c r="RO7"/>
-      <c r="RP7"/>
-      <c r="RQ7"/>
-      <c r="RR7"/>
-      <c r="RS7"/>
-      <c r="RT7"/>
-      <c r="RU7"/>
-      <c r="RV7"/>
-      <c r="RW7"/>
-      <c r="RX7"/>
-      <c r="RY7"/>
-      <c r="RZ7"/>
-      <c r="SA7"/>
-      <c r="SB7"/>
-      <c r="SC7"/>
-      <c r="SD7"/>
-      <c r="SE7"/>
-      <c r="SF7"/>
-      <c r="SG7"/>
-      <c r="SH7"/>
-      <c r="SI7"/>
-      <c r="SJ7"/>
-      <c r="SK7"/>
-      <c r="SL7"/>
-      <c r="SM7"/>
-      <c r="SN7"/>
-      <c r="SO7"/>
-      <c r="SP7"/>
-      <c r="SQ7"/>
-      <c r="SR7"/>
-      <c r="SS7"/>
-      <c r="ST7"/>
-      <c r="SU7"/>
-      <c r="SV7"/>
-      <c r="SW7"/>
-      <c r="SX7"/>
-      <c r="SY7"/>
-      <c r="SZ7"/>
-      <c r="TA7"/>
-      <c r="TB7"/>
-      <c r="TC7"/>
-      <c r="TD7"/>
-      <c r="TE7"/>
-      <c r="TF7"/>
-      <c r="TG7"/>
-      <c r="TH7"/>
-      <c r="TI7"/>
-      <c r="TJ7"/>
-      <c r="TK7"/>
-      <c r="TL7"/>
-      <c r="TM7"/>
-      <c r="TN7"/>
-      <c r="TO7"/>
-      <c r="TP7"/>
-      <c r="TQ7"/>
-      <c r="TR7"/>
-      <c r="TS7"/>
-      <c r="TT7"/>
-      <c r="TU7"/>
-      <c r="TV7"/>
-      <c r="TW7"/>
-      <c r="TX7"/>
-      <c r="TY7"/>
-      <c r="TZ7"/>
-      <c r="UA7"/>
-      <c r="UB7"/>
-      <c r="UC7"/>
-      <c r="UD7"/>
-      <c r="UE7"/>
-      <c r="UF7"/>
-      <c r="UG7"/>
-      <c r="UH7"/>
-      <c r="UI7"/>
-      <c r="UJ7"/>
-      <c r="UK7"/>
-      <c r="UL7"/>
-      <c r="UM7"/>
-      <c r="UN7"/>
-      <c r="UO7"/>
-      <c r="UP7"/>
-      <c r="UQ7"/>
-      <c r="UR7"/>
-      <c r="US7"/>
-      <c r="UT7"/>
-      <c r="UU7"/>
-      <c r="UV7"/>
-      <c r="UW7"/>
-      <c r="UX7"/>
-      <c r="UY7"/>
-      <c r="UZ7"/>
-      <c r="VA7"/>
-      <c r="VB7"/>
-      <c r="VC7"/>
-      <c r="VD7"/>
-      <c r="VE7"/>
-      <c r="VF7"/>
-      <c r="VG7"/>
-      <c r="VH7"/>
-      <c r="VI7"/>
-      <c r="VJ7"/>
-      <c r="VK7"/>
-      <c r="VL7"/>
-      <c r="VM7"/>
-      <c r="VN7"/>
-      <c r="VO7"/>
-      <c r="VP7"/>
-      <c r="VQ7"/>
-      <c r="VR7"/>
-      <c r="VS7"/>
-      <c r="VT7"/>
-      <c r="VU7"/>
-      <c r="VV7"/>
-      <c r="VW7"/>
-      <c r="VX7"/>
-      <c r="VY7"/>
-      <c r="VZ7"/>
-      <c r="WA7"/>
-      <c r="WB7"/>
-      <c r="WC7"/>
-      <c r="WD7"/>
-      <c r="WE7"/>
-      <c r="WF7"/>
-      <c r="WG7"/>
-      <c r="WH7"/>
-      <c r="WI7"/>
-      <c r="WJ7"/>
-      <c r="WK7"/>
-      <c r="WL7"/>
-      <c r="WM7"/>
-      <c r="WN7"/>
-      <c r="WO7"/>
-      <c r="WP7"/>
-      <c r="WQ7"/>
-      <c r="WR7"/>
-      <c r="WS7"/>
-      <c r="WT7"/>
-      <c r="WU7"/>
-      <c r="WV7"/>
-      <c r="WW7"/>
-      <c r="WX7"/>
-      <c r="WY7"/>
-      <c r="WZ7"/>
-      <c r="XA7"/>
-      <c r="XB7"/>
-      <c r="XC7"/>
-      <c r="XD7"/>
-      <c r="XE7"/>
-      <c r="XF7"/>
-      <c r="XG7"/>
-      <c r="XH7"/>
-      <c r="XI7"/>
-      <c r="XJ7"/>
-      <c r="XK7"/>
-      <c r="XL7"/>
-      <c r="XM7"/>
-      <c r="XN7"/>
-      <c r="XO7"/>
-      <c r="XP7"/>
-      <c r="XQ7"/>
-      <c r="XR7"/>
-      <c r="XS7"/>
-      <c r="XT7"/>
-      <c r="XU7"/>
-      <c r="XV7"/>
-      <c r="XW7"/>
-      <c r="XX7"/>
-      <c r="XY7"/>
-      <c r="XZ7"/>
-      <c r="YA7"/>
-      <c r="YB7"/>
-      <c r="YC7"/>
-      <c r="YD7"/>
-      <c r="YE7"/>
-      <c r="YF7"/>
-      <c r="YG7"/>
-      <c r="YH7"/>
-      <c r="YI7"/>
-      <c r="YJ7"/>
-      <c r="YK7"/>
-      <c r="YL7"/>
-      <c r="YM7"/>
-      <c r="YN7"/>
-      <c r="YO7"/>
-      <c r="YP7"/>
-      <c r="YQ7"/>
-      <c r="YR7"/>
-      <c r="YS7"/>
-      <c r="YT7"/>
-      <c r="YU7"/>
-      <c r="YV7"/>
-      <c r="YW7"/>
-      <c r="YX7"/>
-      <c r="YY7"/>
-      <c r="YZ7"/>
-      <c r="ZA7"/>
-      <c r="ZB7"/>
-      <c r="ZC7"/>
-      <c r="ZD7"/>
-      <c r="ZE7"/>
-      <c r="ZF7"/>
-      <c r="ZG7"/>
-      <c r="ZH7"/>
-      <c r="ZI7"/>
-      <c r="ZJ7"/>
-      <c r="ZK7"/>
-      <c r="ZL7"/>
-      <c r="ZM7"/>
-      <c r="ZN7"/>
-      <c r="ZO7"/>
-      <c r="ZP7"/>
-      <c r="ZQ7"/>
-      <c r="ZR7"/>
-      <c r="ZS7"/>
-      <c r="ZT7"/>
-      <c r="ZU7"/>
-      <c r="ZV7"/>
-      <c r="ZW7"/>
-      <c r="ZX7"/>
-      <c r="ZY7"/>
-      <c r="ZZ7"/>
-      <c r="AAA7" s="5"/>
-    </row>
-    <row r="8" spans="1:703">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8"/>
-      <c r="AF8"/>
-      <c r="AG8"/>
-      <c r="AH8"/>
-      <c r="AI8"/>
-      <c r="AJ8"/>
-      <c r="AK8"/>
-      <c r="AL8"/>
-      <c r="AM8"/>
-      <c r="AN8"/>
-      <c r="AO8"/>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
-      <c r="AX8"/>
-      <c r="AY8"/>
-      <c r="AZ8"/>
-      <c r="BA8"/>
-      <c r="BB8"/>
-      <c r="BC8"/>
-      <c r="BD8"/>
-      <c r="BE8"/>
-      <c r="BF8"/>
-      <c r="BG8"/>
-      <c r="BH8"/>
-      <c r="BI8"/>
-      <c r="BJ8"/>
-      <c r="BK8"/>
-      <c r="BL8"/>
-      <c r="BM8"/>
-      <c r="BN8"/>
-      <c r="BO8"/>
-      <c r="BP8"/>
-      <c r="BQ8"/>
-      <c r="BR8"/>
-      <c r="BS8"/>
-      <c r="BT8"/>
-      <c r="BU8"/>
-      <c r="BV8"/>
-      <c r="BW8"/>
-      <c r="BX8"/>
-      <c r="BY8"/>
-      <c r="BZ8"/>
-      <c r="CA8"/>
-      <c r="CB8"/>
-      <c r="CC8"/>
-      <c r="CD8"/>
-      <c r="CE8"/>
-      <c r="CF8"/>
-      <c r="CG8"/>
-      <c r="CH8"/>
-      <c r="CI8"/>
-      <c r="CJ8"/>
-      <c r="CK8"/>
-      <c r="CL8"/>
-      <c r="CM8"/>
-      <c r="CN8"/>
-      <c r="CO8"/>
-      <c r="CP8"/>
-      <c r="CQ8"/>
-      <c r="CR8"/>
-      <c r="CS8"/>
-      <c r="CT8"/>
-      <c r="CU8"/>
-      <c r="CV8"/>
-      <c r="CW8"/>
-      <c r="CX8"/>
-      <c r="CY8"/>
-      <c r="CZ8"/>
-      <c r="DA8"/>
-      <c r="DB8"/>
-      <c r="DC8"/>
-      <c r="DD8"/>
-      <c r="DE8"/>
-      <c r="DF8"/>
-      <c r="DG8"/>
-      <c r="DH8"/>
-      <c r="DI8"/>
-      <c r="DJ8"/>
-      <c r="DK8"/>
-      <c r="DL8"/>
-      <c r="DM8"/>
-      <c r="DN8"/>
-      <c r="DO8"/>
-      <c r="DP8"/>
-      <c r="DQ8"/>
-      <c r="DR8"/>
-      <c r="DS8"/>
-      <c r="DT8"/>
-      <c r="DU8"/>
-      <c r="DV8"/>
-      <c r="DW8"/>
-      <c r="DX8"/>
-      <c r="DY8"/>
-      <c r="DZ8"/>
-      <c r="EA8"/>
-      <c r="EB8"/>
-      <c r="EC8"/>
-      <c r="ED8"/>
-      <c r="EE8"/>
-      <c r="EF8"/>
-      <c r="EG8"/>
-      <c r="EH8"/>
-      <c r="EI8"/>
-      <c r="EJ8"/>
-      <c r="EK8"/>
-      <c r="EL8"/>
-      <c r="EM8"/>
-      <c r="EN8"/>
-      <c r="EO8"/>
-      <c r="EP8"/>
-      <c r="EQ8"/>
-      <c r="ER8"/>
-      <c r="ES8"/>
-      <c r="ET8"/>
-      <c r="EU8"/>
-      <c r="EV8"/>
-      <c r="EW8"/>
-      <c r="EX8"/>
-      <c r="EY8"/>
-      <c r="EZ8"/>
-      <c r="FA8"/>
-      <c r="FB8"/>
-      <c r="FC8"/>
-      <c r="FD8"/>
-      <c r="FE8"/>
-      <c r="FF8"/>
-      <c r="FG8"/>
-      <c r="FH8"/>
-      <c r="FI8"/>
-      <c r="FJ8"/>
-      <c r="FK8"/>
-      <c r="FL8"/>
-      <c r="FM8"/>
-      <c r="FN8"/>
-      <c r="FO8"/>
-      <c r="FP8"/>
-      <c r="FQ8"/>
-      <c r="FR8"/>
-      <c r="FS8"/>
-      <c r="FT8"/>
-      <c r="FU8"/>
-      <c r="FV8"/>
-      <c r="FW8"/>
-      <c r="FX8"/>
-      <c r="FY8"/>
-      <c r="FZ8"/>
-      <c r="GA8"/>
-      <c r="GB8"/>
-      <c r="GC8"/>
-      <c r="GD8"/>
-      <c r="GE8"/>
-      <c r="GF8"/>
-      <c r="GG8"/>
-      <c r="GH8"/>
-      <c r="GI8"/>
-      <c r="GJ8"/>
-      <c r="GK8"/>
-      <c r="GL8"/>
-      <c r="GM8"/>
-      <c r="GN8"/>
-      <c r="GO8"/>
-      <c r="GP8"/>
-      <c r="GQ8"/>
-      <c r="GR8"/>
-      <c r="GS8"/>
-      <c r="GT8"/>
-      <c r="GU8"/>
-      <c r="GV8"/>
-      <c r="GW8"/>
-      <c r="GX8"/>
-      <c r="GY8"/>
-      <c r="GZ8"/>
-      <c r="HA8" s="4"/>
-      <c r="HB8"/>
-      <c r="HC8"/>
-      <c r="HD8"/>
-      <c r="HE8"/>
-      <c r="HF8"/>
-      <c r="HG8"/>
-      <c r="HH8"/>
-      <c r="HI8"/>
-      <c r="HJ8"/>
-      <c r="HK8"/>
-      <c r="HL8"/>
-      <c r="HM8"/>
-      <c r="HN8"/>
-      <c r="HO8"/>
-      <c r="HP8"/>
-      <c r="HQ8"/>
-      <c r="HR8"/>
-      <c r="HS8"/>
-      <c r="HT8"/>
-      <c r="HU8"/>
-      <c r="HV8"/>
-      <c r="HW8"/>
-      <c r="HX8"/>
-      <c r="HY8"/>
-      <c r="HZ8"/>
-      <c r="IA8"/>
-      <c r="IB8"/>
-      <c r="IC8"/>
-      <c r="ID8"/>
-      <c r="IE8"/>
-      <c r="IF8"/>
-      <c r="IG8"/>
-      <c r="IH8"/>
-      <c r="II8"/>
-      <c r="IJ8"/>
-      <c r="IK8"/>
-      <c r="IL8"/>
-      <c r="IM8"/>
-      <c r="IN8"/>
-      <c r="IO8"/>
-      <c r="IP8"/>
-      <c r="IQ8"/>
-      <c r="IR8"/>
-      <c r="IS8"/>
-      <c r="IT8"/>
-      <c r="IU8"/>
-      <c r="IV8"/>
-      <c r="IW8"/>
-      <c r="IX8"/>
-      <c r="IY8"/>
-      <c r="IZ8"/>
-      <c r="JA8"/>
-      <c r="JB8"/>
-      <c r="JC8"/>
-      <c r="JD8"/>
-      <c r="JE8"/>
-      <c r="JF8"/>
-      <c r="JG8"/>
-      <c r="JH8"/>
-      <c r="JI8"/>
-      <c r="JJ8"/>
-      <c r="JK8"/>
-      <c r="JL8"/>
-      <c r="JM8"/>
-      <c r="JN8"/>
-      <c r="JO8"/>
-      <c r="JP8"/>
-      <c r="JQ8"/>
-      <c r="JR8"/>
-      <c r="JS8"/>
-      <c r="JT8"/>
-      <c r="JU8"/>
-      <c r="JV8"/>
-      <c r="JW8"/>
-      <c r="JX8"/>
-      <c r="JY8"/>
-      <c r="JZ8"/>
-      <c r="KA8"/>
-      <c r="KB8"/>
-      <c r="KC8"/>
-      <c r="KD8"/>
-      <c r="KE8"/>
-      <c r="KF8"/>
-      <c r="KG8"/>
-      <c r="KH8"/>
-      <c r="KI8"/>
-      <c r="KJ8"/>
-      <c r="KK8"/>
-      <c r="KL8"/>
-      <c r="KM8"/>
-      <c r="KN8"/>
-      <c r="KO8"/>
-      <c r="KP8"/>
-      <c r="KQ8"/>
-      <c r="KR8"/>
-      <c r="KS8"/>
-      <c r="KT8"/>
-      <c r="KU8"/>
-      <c r="KV8"/>
-      <c r="KW8"/>
-      <c r="KX8"/>
-      <c r="KY8"/>
-      <c r="KZ8"/>
-      <c r="LA8"/>
-      <c r="LB8"/>
-      <c r="LC8"/>
-      <c r="LD8"/>
-      <c r="LE8"/>
-      <c r="LF8"/>
-      <c r="LG8"/>
-      <c r="LH8"/>
-      <c r="LI8"/>
-      <c r="LJ8"/>
-      <c r="LK8"/>
-      <c r="LL8"/>
-      <c r="LM8"/>
-      <c r="LN8"/>
-      <c r="LO8"/>
-      <c r="LP8"/>
-      <c r="LQ8"/>
-      <c r="LR8"/>
-      <c r="LS8"/>
-      <c r="LT8"/>
-      <c r="LU8"/>
-      <c r="LV8"/>
-      <c r="LW8"/>
-      <c r="LX8"/>
-      <c r="LY8"/>
-      <c r="LZ8"/>
-      <c r="MA8"/>
-      <c r="MB8"/>
-      <c r="MC8"/>
-      <c r="MD8"/>
-      <c r="ME8"/>
-      <c r="MF8"/>
-      <c r="MG8"/>
-      <c r="MH8"/>
-      <c r="MI8"/>
-      <c r="MJ8"/>
-      <c r="MK8"/>
-      <c r="ML8"/>
-      <c r="MM8"/>
-      <c r="MN8"/>
-      <c r="MO8"/>
-      <c r="MP8"/>
-      <c r="MQ8"/>
-      <c r="MR8"/>
-      <c r="MS8"/>
-      <c r="MT8"/>
-      <c r="MU8"/>
-      <c r="MV8"/>
-      <c r="MW8"/>
-      <c r="MX8"/>
-      <c r="MY8"/>
-      <c r="MZ8"/>
-      <c r="NA8"/>
-      <c r="NB8"/>
-      <c r="NC8"/>
-      <c r="ND8"/>
-      <c r="NE8"/>
-      <c r="NF8"/>
-      <c r="NG8"/>
-      <c r="NH8"/>
-      <c r="NI8"/>
-      <c r="NJ8"/>
-      <c r="NK8"/>
-      <c r="NL8"/>
-      <c r="NM8"/>
-      <c r="NN8"/>
-      <c r="NO8"/>
-      <c r="NP8"/>
-      <c r="NQ8"/>
-      <c r="NR8"/>
-      <c r="NS8"/>
-      <c r="NT8"/>
-      <c r="NU8"/>
-      <c r="NV8"/>
-      <c r="NW8"/>
-      <c r="NX8"/>
-      <c r="NY8"/>
-      <c r="NZ8"/>
-      <c r="OA8"/>
-      <c r="OB8"/>
-      <c r="OC8"/>
-      <c r="OD8"/>
-      <c r="OE8"/>
-      <c r="OF8"/>
-      <c r="OG8"/>
-      <c r="OH8"/>
-      <c r="OI8"/>
-      <c r="OJ8"/>
-      <c r="OK8"/>
-      <c r="OL8"/>
-      <c r="OM8"/>
-      <c r="ON8"/>
-      <c r="OO8"/>
-      <c r="OP8"/>
-      <c r="OQ8"/>
-      <c r="OR8"/>
-      <c r="OS8"/>
-      <c r="OT8"/>
-      <c r="OU8"/>
-      <c r="OV8"/>
-      <c r="OW8"/>
-      <c r="OX8"/>
-      <c r="OY8"/>
-      <c r="OZ8"/>
-      <c r="PA8"/>
-      <c r="PB8"/>
-      <c r="PC8"/>
-      <c r="PD8"/>
-      <c r="PE8"/>
-      <c r="PF8"/>
-      <c r="PG8"/>
-      <c r="PH8"/>
-      <c r="PI8"/>
-      <c r="PJ8"/>
-      <c r="PK8"/>
-      <c r="PL8"/>
-      <c r="PM8"/>
-      <c r="PN8"/>
-      <c r="PO8"/>
-      <c r="PP8"/>
-      <c r="PQ8"/>
-      <c r="PR8"/>
-      <c r="PS8"/>
-      <c r="PT8"/>
-      <c r="PU8"/>
-      <c r="PV8"/>
-      <c r="PW8"/>
-      <c r="PX8"/>
-      <c r="PY8"/>
-      <c r="PZ8"/>
-      <c r="QA8"/>
-      <c r="QB8"/>
-      <c r="QC8"/>
-      <c r="QD8"/>
-      <c r="QE8"/>
-      <c r="QF8"/>
-      <c r="QG8"/>
-      <c r="QH8"/>
-      <c r="QI8"/>
-      <c r="QJ8"/>
-      <c r="QK8"/>
-      <c r="QL8"/>
-      <c r="QM8"/>
-      <c r="QN8"/>
-      <c r="QO8"/>
-      <c r="QP8"/>
-      <c r="QQ8"/>
-      <c r="QR8"/>
-      <c r="QS8"/>
-      <c r="QT8"/>
-      <c r="QU8"/>
-      <c r="QV8"/>
-      <c r="QW8"/>
-      <c r="QX8"/>
-      <c r="QY8"/>
-      <c r="QZ8"/>
-      <c r="RA8"/>
-      <c r="RB8"/>
-      <c r="RC8"/>
-      <c r="RD8"/>
-      <c r="RE8"/>
-      <c r="RF8"/>
-      <c r="RG8"/>
-      <c r="RH8"/>
-      <c r="RI8"/>
-      <c r="RJ8"/>
-      <c r="RK8"/>
-      <c r="RL8"/>
-      <c r="RM8"/>
-      <c r="RN8"/>
-      <c r="RO8"/>
-      <c r="RP8"/>
-      <c r="RQ8"/>
-      <c r="RR8"/>
-      <c r="RS8"/>
-      <c r="RT8"/>
-      <c r="RU8"/>
-      <c r="RV8"/>
-      <c r="RW8"/>
-      <c r="RX8"/>
-      <c r="RY8"/>
-      <c r="RZ8"/>
-      <c r="SA8"/>
-      <c r="SB8"/>
-      <c r="SC8"/>
-      <c r="SD8"/>
-      <c r="SE8"/>
-      <c r="SF8"/>
-      <c r="SG8"/>
-      <c r="SH8"/>
-      <c r="SI8"/>
-      <c r="SJ8"/>
-      <c r="SK8"/>
-      <c r="SL8"/>
-      <c r="SM8"/>
-      <c r="SN8"/>
-      <c r="SO8"/>
-      <c r="SP8"/>
-      <c r="SQ8"/>
-      <c r="SR8"/>
-      <c r="SS8"/>
-      <c r="ST8"/>
-      <c r="SU8"/>
-      <c r="SV8"/>
-      <c r="SW8"/>
-      <c r="SX8"/>
-      <c r="SY8"/>
-      <c r="SZ8"/>
-      <c r="TA8"/>
-      <c r="TB8"/>
-      <c r="TC8"/>
-      <c r="TD8"/>
-      <c r="TE8"/>
-      <c r="TF8"/>
-      <c r="TG8"/>
-      <c r="TH8"/>
-      <c r="TI8"/>
-      <c r="TJ8"/>
-      <c r="TK8"/>
-      <c r="TL8"/>
-      <c r="TM8"/>
-      <c r="TN8"/>
-      <c r="TO8"/>
-      <c r="TP8"/>
-      <c r="TQ8"/>
-      <c r="TR8"/>
-      <c r="TS8"/>
-      <c r="TT8"/>
-      <c r="TU8"/>
-      <c r="TV8"/>
-      <c r="TW8"/>
-      <c r="TX8"/>
-      <c r="TY8"/>
-      <c r="TZ8"/>
-      <c r="UA8"/>
-      <c r="UB8"/>
-      <c r="UC8"/>
-      <c r="UD8"/>
-      <c r="UE8"/>
-      <c r="UF8"/>
-      <c r="UG8"/>
-      <c r="UH8"/>
-      <c r="UI8"/>
-      <c r="UJ8"/>
-      <c r="UK8"/>
-      <c r="UL8"/>
-      <c r="UM8"/>
-      <c r="UN8"/>
-      <c r="UO8"/>
-      <c r="UP8"/>
-      <c r="UQ8"/>
-      <c r="UR8"/>
-      <c r="US8"/>
-      <c r="UT8"/>
-      <c r="UU8"/>
-      <c r="UV8"/>
-      <c r="UW8"/>
-      <c r="UX8"/>
-      <c r="UY8"/>
-      <c r="UZ8"/>
-      <c r="VA8"/>
-      <c r="VB8"/>
-      <c r="VC8"/>
-      <c r="VD8"/>
-      <c r="VE8"/>
-      <c r="VF8"/>
-      <c r="VG8"/>
-      <c r="VH8"/>
-      <c r="VI8"/>
-      <c r="VJ8"/>
-      <c r="VK8"/>
-      <c r="VL8"/>
-      <c r="VM8"/>
-      <c r="VN8"/>
-      <c r="VO8"/>
-      <c r="VP8"/>
-      <c r="VQ8"/>
-      <c r="VR8"/>
-      <c r="VS8"/>
-      <c r="VT8"/>
-      <c r="VU8"/>
-      <c r="VV8"/>
-      <c r="VW8"/>
-      <c r="VX8"/>
-      <c r="VY8"/>
-      <c r="VZ8"/>
-      <c r="WA8"/>
-      <c r="WB8"/>
-      <c r="WC8"/>
-      <c r="WD8"/>
-      <c r="WE8"/>
-      <c r="WF8"/>
-      <c r="WG8"/>
-      <c r="WH8"/>
-      <c r="WI8"/>
-      <c r="WJ8"/>
-      <c r="WK8"/>
-      <c r="WL8"/>
-      <c r="WM8"/>
-      <c r="WN8"/>
-      <c r="WO8"/>
-      <c r="WP8"/>
-      <c r="WQ8"/>
-      <c r="WR8"/>
-      <c r="WS8"/>
-      <c r="WT8"/>
-      <c r="WU8"/>
-      <c r="WV8"/>
-      <c r="WW8"/>
-      <c r="WX8"/>
-      <c r="WY8"/>
-      <c r="WZ8"/>
-      <c r="XA8"/>
-      <c r="XB8"/>
-      <c r="XC8"/>
-      <c r="XD8"/>
-      <c r="XE8"/>
-      <c r="XF8"/>
-      <c r="XG8"/>
-      <c r="XH8"/>
-      <c r="XI8"/>
-      <c r="XJ8"/>
-      <c r="XK8"/>
-      <c r="XL8"/>
-      <c r="XM8"/>
-      <c r="XN8"/>
-      <c r="XO8"/>
-      <c r="XP8"/>
-      <c r="XQ8"/>
-      <c r="XR8"/>
-      <c r="XS8"/>
-      <c r="XT8"/>
-      <c r="XU8"/>
-      <c r="XV8"/>
-      <c r="XW8"/>
-      <c r="XX8"/>
-      <c r="XY8"/>
-      <c r="XZ8"/>
-      <c r="YA8"/>
-      <c r="YB8"/>
-      <c r="YC8"/>
-      <c r="YD8"/>
-      <c r="YE8"/>
-      <c r="YF8"/>
-      <c r="YG8"/>
-      <c r="YH8"/>
-      <c r="YI8"/>
-      <c r="YJ8"/>
-      <c r="YK8"/>
-      <c r="YL8"/>
-      <c r="YM8"/>
-      <c r="YN8"/>
-      <c r="YO8"/>
-      <c r="YP8"/>
-      <c r="YQ8"/>
-      <c r="YR8"/>
-      <c r="YS8"/>
-      <c r="YT8"/>
-      <c r="YU8"/>
-      <c r="YV8"/>
-      <c r="YW8"/>
-      <c r="YX8"/>
-      <c r="YY8"/>
-      <c r="YZ8"/>
-      <c r="ZA8"/>
-      <c r="ZB8"/>
-      <c r="ZC8"/>
-      <c r="ZD8"/>
-      <c r="ZE8"/>
-      <c r="ZF8"/>
-      <c r="ZG8"/>
-      <c r="ZH8"/>
-      <c r="ZI8"/>
-      <c r="ZJ8"/>
-      <c r="ZK8"/>
-      <c r="ZL8"/>
-      <c r="ZM8"/>
-      <c r="ZN8"/>
-      <c r="ZO8"/>
-      <c r="ZP8"/>
-      <c r="ZQ8"/>
-      <c r="ZR8"/>
-      <c r="ZS8"/>
-      <c r="ZT8"/>
-      <c r="ZU8"/>
-      <c r="ZV8"/>
-      <c r="ZW8"/>
-      <c r="ZX8"/>
-      <c r="ZY8"/>
-      <c r="ZZ8"/>
-      <c r="AAA8" s="5"/>
-    </row>
-    <row r="9" spans="1:703">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9"/>
-      <c r="AG9"/>
-      <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9"/>
-      <c r="AK9"/>
-      <c r="AL9"/>
-      <c r="AM9"/>
-      <c r="AN9"/>
-      <c r="AO9"/>
-      <c r="AP9"/>
-      <c r="AQ9"/>
-      <c r="AR9"/>
-      <c r="AS9"/>
-      <c r="AT9"/>
-      <c r="AU9"/>
-      <c r="AV9"/>
-      <c r="AW9"/>
-      <c r="AX9"/>
-      <c r="AY9"/>
-      <c r="AZ9"/>
-      <c r="BA9"/>
-      <c r="BB9"/>
-      <c r="BC9"/>
-      <c r="BD9"/>
-      <c r="BE9"/>
-      <c r="BF9"/>
-      <c r="BG9"/>
-      <c r="BH9"/>
-      <c r="BI9"/>
-      <c r="BJ9"/>
-      <c r="BK9"/>
-      <c r="BL9"/>
-      <c r="BM9"/>
-      <c r="BN9"/>
-      <c r="BO9"/>
-      <c r="BP9"/>
-      <c r="BQ9"/>
-      <c r="BR9"/>
-      <c r="BS9"/>
-      <c r="BT9"/>
-      <c r="BU9"/>
-      <c r="BV9"/>
-      <c r="BW9"/>
-      <c r="BX9"/>
-      <c r="BY9"/>
-      <c r="BZ9"/>
-      <c r="CA9"/>
-      <c r="CB9"/>
-      <c r="CC9"/>
-      <c r="CD9"/>
-      <c r="CE9"/>
-      <c r="CF9"/>
-      <c r="CG9"/>
-      <c r="CH9"/>
-      <c r="CI9"/>
-      <c r="CJ9"/>
-      <c r="CK9"/>
-      <c r="CL9"/>
-      <c r="CM9"/>
-      <c r="CN9"/>
-      <c r="CO9"/>
-      <c r="CP9"/>
-      <c r="CQ9"/>
-      <c r="CR9"/>
-      <c r="CS9"/>
-      <c r="CT9"/>
-      <c r="CU9"/>
-      <c r="CV9"/>
-      <c r="CW9"/>
-      <c r="CX9"/>
-      <c r="CY9"/>
-      <c r="CZ9"/>
-      <c r="DA9"/>
-      <c r="DB9"/>
-      <c r="DC9"/>
-      <c r="DD9"/>
-      <c r="DE9"/>
-      <c r="DF9"/>
-      <c r="DG9"/>
-      <c r="DH9"/>
-      <c r="DI9"/>
-      <c r="DJ9"/>
-      <c r="DK9"/>
-      <c r="DL9"/>
-      <c r="DM9"/>
-      <c r="DN9"/>
-      <c r="DO9"/>
-      <c r="DP9"/>
-      <c r="DQ9"/>
-      <c r="DR9"/>
-      <c r="DS9"/>
-      <c r="DT9"/>
-      <c r="DU9"/>
-      <c r="DV9"/>
-      <c r="DW9"/>
-      <c r="DX9"/>
-      <c r="DY9"/>
-      <c r="DZ9"/>
-      <c r="EA9"/>
-      <c r="EB9"/>
-      <c r="EC9"/>
-      <c r="ED9"/>
-      <c r="EE9"/>
-      <c r="EF9"/>
-      <c r="EG9"/>
-      <c r="EH9"/>
-      <c r="EI9"/>
-      <c r="EJ9"/>
-      <c r="EK9"/>
-      <c r="EL9"/>
-      <c r="EM9"/>
-      <c r="EN9"/>
-      <c r="EO9"/>
-      <c r="EP9"/>
-      <c r="EQ9"/>
-      <c r="ER9"/>
-      <c r="ES9"/>
-      <c r="ET9"/>
-      <c r="EU9"/>
-      <c r="EV9"/>
-      <c r="EW9"/>
-      <c r="EX9"/>
-      <c r="EY9"/>
-      <c r="EZ9"/>
-      <c r="FA9"/>
-      <c r="FB9"/>
-      <c r="FC9"/>
-      <c r="FD9"/>
-      <c r="FE9"/>
-      <c r="FF9"/>
-      <c r="FG9"/>
-      <c r="FH9"/>
-      <c r="FI9"/>
-      <c r="FJ9"/>
-      <c r="FK9"/>
-      <c r="FL9"/>
-      <c r="FM9"/>
-      <c r="FN9"/>
-      <c r="FO9"/>
-      <c r="FP9"/>
-      <c r="FQ9"/>
-      <c r="FR9"/>
-      <c r="FS9"/>
-      <c r="FT9"/>
-      <c r="FU9"/>
-      <c r="FV9"/>
-      <c r="FW9"/>
-      <c r="FX9"/>
-      <c r="FY9"/>
-      <c r="FZ9"/>
-      <c r="GA9"/>
-      <c r="GB9"/>
-      <c r="GC9"/>
-      <c r="GD9"/>
-      <c r="GE9"/>
-      <c r="GF9"/>
-      <c r="GG9"/>
-      <c r="GH9"/>
-      <c r="GI9"/>
-      <c r="GJ9"/>
-      <c r="GK9"/>
-      <c r="GL9"/>
-      <c r="GM9"/>
-      <c r="GN9"/>
-      <c r="GO9"/>
-      <c r="GP9"/>
-      <c r="GQ9"/>
-      <c r="GR9"/>
-      <c r="GS9"/>
-      <c r="GT9"/>
-      <c r="GU9"/>
-      <c r="GV9"/>
-      <c r="GW9"/>
-      <c r="GX9"/>
-      <c r="GY9"/>
-      <c r="GZ9"/>
-      <c r="HA9"/>
-      <c r="HB9"/>
-      <c r="HC9"/>
-      <c r="HD9"/>
-      <c r="HE9"/>
-      <c r="HF9"/>
-      <c r="HG9"/>
-      <c r="HH9"/>
-      <c r="HI9"/>
-      <c r="HJ9"/>
-      <c r="HK9"/>
-      <c r="HL9"/>
-      <c r="HM9"/>
-      <c r="HN9"/>
-      <c r="HO9"/>
-      <c r="HP9"/>
-      <c r="HQ9"/>
-      <c r="HR9"/>
-      <c r="HS9"/>
-      <c r="HT9"/>
-      <c r="HU9"/>
-      <c r="HV9"/>
-      <c r="HW9"/>
-      <c r="HX9"/>
-      <c r="HY9"/>
-      <c r="HZ9"/>
-      <c r="IA9"/>
-      <c r="IB9"/>
-      <c r="IC9"/>
-      <c r="ID9"/>
-      <c r="IE9"/>
-      <c r="IF9"/>
-      <c r="IG9"/>
-      <c r="IH9"/>
-      <c r="II9"/>
-      <c r="IJ9"/>
-      <c r="IK9"/>
-      <c r="IL9"/>
-      <c r="IM9"/>
-      <c r="IN9"/>
-      <c r="IO9"/>
-      <c r="IP9"/>
-      <c r="IQ9"/>
-      <c r="IR9"/>
-      <c r="IS9"/>
-      <c r="IT9"/>
-      <c r="IU9"/>
-      <c r="IV9"/>
-      <c r="IW9"/>
-      <c r="IX9"/>
-      <c r="IY9"/>
-      <c r="IZ9"/>
-      <c r="JA9"/>
-      <c r="JB9"/>
-      <c r="JC9"/>
-      <c r="JD9"/>
-      <c r="JE9"/>
-      <c r="JF9"/>
-      <c r="JG9"/>
-      <c r="JH9"/>
-      <c r="JI9"/>
-      <c r="JJ9"/>
-      <c r="JK9"/>
-      <c r="JL9"/>
-      <c r="JM9"/>
-      <c r="JN9"/>
-      <c r="JO9"/>
-      <c r="JP9"/>
-      <c r="JQ9"/>
-      <c r="JR9"/>
-      <c r="JS9"/>
-      <c r="JT9"/>
-      <c r="JU9"/>
-      <c r="JV9"/>
-      <c r="JW9"/>
-      <c r="JX9"/>
-      <c r="JY9"/>
-      <c r="JZ9"/>
-      <c r="KA9"/>
-      <c r="KB9"/>
-      <c r="KC9"/>
-      <c r="KD9"/>
-      <c r="KE9"/>
-      <c r="KF9"/>
-      <c r="KG9"/>
-      <c r="KH9"/>
-      <c r="KI9"/>
-      <c r="KJ9"/>
-      <c r="KK9"/>
-      <c r="KL9"/>
-      <c r="KM9"/>
-      <c r="KN9"/>
-      <c r="KO9"/>
-      <c r="KP9"/>
-      <c r="KQ9"/>
-      <c r="KR9"/>
-      <c r="KS9"/>
-      <c r="KT9"/>
-      <c r="KU9"/>
-      <c r="KV9"/>
-      <c r="KW9"/>
-      <c r="KX9"/>
-      <c r="KY9"/>
-      <c r="KZ9"/>
-      <c r="LA9"/>
-      <c r="LB9"/>
-      <c r="LC9"/>
-      <c r="LD9"/>
-      <c r="LE9"/>
-      <c r="LF9"/>
-      <c r="LG9"/>
-      <c r="LH9"/>
-      <c r="LI9"/>
-      <c r="LJ9"/>
-      <c r="LK9"/>
-      <c r="LL9"/>
-      <c r="LM9"/>
-      <c r="LN9"/>
-      <c r="LO9"/>
-      <c r="LP9"/>
-      <c r="LQ9"/>
-      <c r="LR9"/>
-      <c r="LS9"/>
-      <c r="LT9"/>
-      <c r="LU9"/>
-      <c r="LV9"/>
-      <c r="LW9"/>
-      <c r="LX9"/>
-      <c r="LY9"/>
-      <c r="LZ9"/>
-      <c r="MA9"/>
-      <c r="MB9"/>
-      <c r="MC9"/>
-      <c r="MD9"/>
-      <c r="ME9"/>
-      <c r="MF9"/>
-      <c r="MG9"/>
-      <c r="MH9"/>
-      <c r="MI9"/>
-      <c r="MJ9"/>
-      <c r="MK9"/>
-      <c r="ML9"/>
-      <c r="MM9"/>
-      <c r="MN9"/>
-      <c r="MO9"/>
-      <c r="MP9"/>
-      <c r="MQ9"/>
-      <c r="MR9"/>
-      <c r="MS9"/>
-      <c r="MT9"/>
-      <c r="MU9"/>
-      <c r="MV9"/>
-      <c r="MW9"/>
-      <c r="MX9"/>
-      <c r="MY9"/>
-      <c r="MZ9"/>
-      <c r="NA9"/>
-      <c r="NB9"/>
-      <c r="NC9"/>
-      <c r="ND9"/>
-      <c r="NE9"/>
-      <c r="NF9"/>
-      <c r="NG9"/>
-      <c r="NH9"/>
-      <c r="NI9"/>
-      <c r="NJ9"/>
-      <c r="NK9"/>
-      <c r="NL9"/>
-      <c r="NM9"/>
-      <c r="NN9"/>
-      <c r="NO9"/>
-      <c r="NP9"/>
-      <c r="NQ9"/>
-      <c r="NR9"/>
-      <c r="NS9"/>
-      <c r="NT9"/>
-      <c r="NU9"/>
-      <c r="NV9"/>
-      <c r="NW9"/>
-      <c r="NX9"/>
-      <c r="NY9"/>
-      <c r="NZ9"/>
-      <c r="OA9"/>
-      <c r="OB9"/>
-      <c r="OC9"/>
-      <c r="OD9"/>
-      <c r="OE9"/>
-      <c r="OF9"/>
-      <c r="OG9"/>
-      <c r="OH9"/>
-      <c r="OI9"/>
-      <c r="OJ9"/>
-      <c r="OK9"/>
-      <c r="OL9"/>
-      <c r="OM9"/>
-      <c r="ON9"/>
-      <c r="OO9"/>
-      <c r="OP9"/>
-      <c r="OQ9"/>
-      <c r="OR9"/>
-      <c r="OS9"/>
-      <c r="OT9"/>
-      <c r="OU9"/>
-      <c r="OV9"/>
-      <c r="OW9"/>
-      <c r="OX9"/>
-      <c r="OY9"/>
-      <c r="OZ9"/>
-      <c r="PA9"/>
-      <c r="PB9"/>
-      <c r="PC9"/>
-      <c r="PD9"/>
-      <c r="PE9"/>
-      <c r="PF9"/>
-      <c r="PG9"/>
-      <c r="PH9"/>
-      <c r="PI9"/>
-      <c r="PJ9"/>
-      <c r="PK9"/>
-      <c r="PL9"/>
-      <c r="PM9"/>
-      <c r="PN9"/>
-      <c r="PO9"/>
-      <c r="PP9"/>
-      <c r="PQ9"/>
-      <c r="PR9"/>
-      <c r="PS9"/>
-      <c r="PT9"/>
-      <c r="PU9"/>
-      <c r="PV9"/>
-      <c r="PW9"/>
-      <c r="PX9"/>
-      <c r="PY9"/>
-      <c r="PZ9"/>
-      <c r="QA9"/>
-      <c r="QB9"/>
-      <c r="QC9"/>
-      <c r="QD9"/>
-      <c r="QE9"/>
-      <c r="QF9"/>
-      <c r="QG9"/>
-      <c r="QH9"/>
-      <c r="QI9"/>
-      <c r="QJ9"/>
-      <c r="QK9"/>
-      <c r="QL9"/>
-      <c r="QM9"/>
-      <c r="QN9"/>
-      <c r="QO9"/>
-      <c r="QP9"/>
-      <c r="QQ9"/>
-      <c r="QR9"/>
-      <c r="QS9"/>
-      <c r="QT9"/>
-      <c r="QU9"/>
-      <c r="QV9"/>
-      <c r="QW9"/>
-      <c r="QX9"/>
-      <c r="QY9"/>
-      <c r="QZ9"/>
-      <c r="RA9"/>
-      <c r="RB9"/>
-      <c r="RC9"/>
-      <c r="RD9"/>
-      <c r="RE9"/>
-      <c r="RF9"/>
-      <c r="RG9"/>
-      <c r="RH9"/>
-      <c r="RI9"/>
-      <c r="RJ9"/>
-      <c r="RK9"/>
-      <c r="RL9"/>
-      <c r="RM9"/>
-      <c r="RN9"/>
-      <c r="RO9"/>
-      <c r="RP9"/>
-      <c r="RQ9"/>
-      <c r="RR9"/>
-      <c r="RS9"/>
-      <c r="RT9"/>
-      <c r="RU9"/>
-      <c r="RV9"/>
-      <c r="RW9"/>
-      <c r="RX9"/>
-      <c r="RY9"/>
-      <c r="RZ9"/>
-      <c r="SA9"/>
-      <c r="SB9"/>
-      <c r="SC9"/>
-      <c r="SD9"/>
-      <c r="SE9"/>
-      <c r="SF9"/>
-      <c r="SG9"/>
-      <c r="SH9"/>
-      <c r="SI9"/>
-      <c r="SJ9"/>
-      <c r="SK9"/>
-      <c r="SL9"/>
-      <c r="SM9"/>
-      <c r="SN9"/>
-      <c r="SO9"/>
-      <c r="SP9"/>
-      <c r="SQ9"/>
-      <c r="SR9"/>
-      <c r="SS9"/>
-      <c r="ST9"/>
-      <c r="SU9"/>
-      <c r="SV9"/>
-      <c r="SW9"/>
-      <c r="SX9"/>
-      <c r="SY9"/>
-      <c r="SZ9"/>
-      <c r="TA9"/>
-      <c r="TB9"/>
-      <c r="TC9"/>
-      <c r="TD9"/>
-      <c r="TE9"/>
-      <c r="TF9"/>
-      <c r="TG9"/>
-      <c r="TH9"/>
-      <c r="TI9"/>
-      <c r="TJ9"/>
-      <c r="TK9"/>
-      <c r="TL9"/>
-      <c r="TM9"/>
-      <c r="TN9"/>
-      <c r="TO9"/>
-      <c r="TP9"/>
-      <c r="TQ9"/>
-      <c r="TR9"/>
-      <c r="TS9"/>
-      <c r="TT9"/>
-      <c r="TU9"/>
-      <c r="TV9"/>
-      <c r="TW9"/>
-      <c r="TX9"/>
-      <c r="TY9"/>
-      <c r="TZ9"/>
-      <c r="UA9"/>
-      <c r="UB9"/>
-      <c r="UC9"/>
-      <c r="UD9"/>
-      <c r="UE9"/>
-      <c r="UF9"/>
-      <c r="UG9"/>
-      <c r="UH9"/>
-      <c r="UI9"/>
-      <c r="UJ9"/>
-      <c r="UK9"/>
-      <c r="UL9"/>
-      <c r="UM9"/>
-      <c r="UN9"/>
-      <c r="UO9"/>
-      <c r="UP9"/>
-      <c r="UQ9"/>
-      <c r="UR9"/>
-      <c r="US9"/>
-      <c r="UT9"/>
-      <c r="UU9"/>
-      <c r="UV9"/>
-      <c r="UW9"/>
-      <c r="UX9"/>
-      <c r="UY9"/>
-      <c r="UZ9"/>
-      <c r="VA9"/>
-      <c r="VB9"/>
-      <c r="VC9"/>
-      <c r="VD9"/>
-      <c r="VE9"/>
-      <c r="VF9"/>
-      <c r="VG9"/>
-      <c r="VH9"/>
-      <c r="VI9"/>
-      <c r="VJ9"/>
-      <c r="VK9"/>
-      <c r="VL9"/>
-      <c r="VM9"/>
-      <c r="VN9"/>
-      <c r="VO9"/>
-      <c r="VP9"/>
-      <c r="VQ9"/>
-      <c r="VR9"/>
-      <c r="VS9"/>
-      <c r="VT9"/>
-      <c r="VU9"/>
-      <c r="VV9"/>
-      <c r="VW9"/>
-      <c r="VX9"/>
-      <c r="VY9"/>
-      <c r="VZ9"/>
-      <c r="WA9"/>
-      <c r="WB9"/>
-      <c r="WC9"/>
-      <c r="WD9"/>
-      <c r="WE9"/>
-      <c r="WF9"/>
-      <c r="WG9"/>
-      <c r="WH9"/>
-      <c r="WI9"/>
-      <c r="WJ9"/>
-      <c r="WK9"/>
-      <c r="WL9"/>
-      <c r="WM9"/>
-      <c r="WN9"/>
-      <c r="WO9"/>
-      <c r="WP9"/>
-      <c r="WQ9"/>
-      <c r="WR9"/>
-      <c r="WS9"/>
-      <c r="WT9"/>
-      <c r="WU9"/>
-      <c r="WV9"/>
-      <c r="WW9"/>
-      <c r="WX9"/>
-      <c r="WY9"/>
-      <c r="WZ9"/>
-      <c r="XA9"/>
-      <c r="XB9"/>
-      <c r="XC9"/>
-      <c r="XD9"/>
-      <c r="XE9"/>
-      <c r="XF9"/>
-      <c r="XG9"/>
-      <c r="XH9"/>
-      <c r="XI9"/>
-      <c r="XJ9"/>
-      <c r="XK9"/>
-      <c r="XL9"/>
-      <c r="XM9"/>
-      <c r="XN9"/>
-      <c r="XO9"/>
-      <c r="XP9"/>
-      <c r="XQ9"/>
-      <c r="XR9"/>
-      <c r="XS9"/>
-      <c r="XT9"/>
-      <c r="XU9"/>
-      <c r="XV9"/>
-      <c r="XW9"/>
-      <c r="XX9"/>
-      <c r="XY9"/>
-      <c r="XZ9"/>
-      <c r="YA9"/>
-      <c r="YB9"/>
-      <c r="YC9"/>
-      <c r="YD9"/>
-      <c r="YE9"/>
-      <c r="YF9"/>
-      <c r="YG9"/>
-      <c r="YH9"/>
-      <c r="YI9"/>
-      <c r="YJ9"/>
-      <c r="YK9"/>
-      <c r="YL9"/>
-      <c r="YM9"/>
-      <c r="YN9"/>
-      <c r="YO9"/>
-      <c r="YP9"/>
-      <c r="YQ9"/>
-      <c r="YR9"/>
-      <c r="YS9"/>
-      <c r="YT9"/>
-      <c r="YU9"/>
-      <c r="YV9"/>
-      <c r="YW9"/>
-      <c r="YX9"/>
-      <c r="YY9"/>
-      <c r="YZ9"/>
-      <c r="ZA9"/>
-      <c r="ZB9"/>
-      <c r="ZC9"/>
-      <c r="ZD9"/>
-      <c r="ZE9"/>
-      <c r="ZF9"/>
-      <c r="ZG9"/>
-      <c r="ZH9"/>
-      <c r="ZI9"/>
-      <c r="ZJ9"/>
-      <c r="ZK9"/>
-      <c r="ZL9"/>
-      <c r="ZM9"/>
-      <c r="ZN9"/>
-      <c r="ZO9"/>
-      <c r="ZP9"/>
-      <c r="ZQ9"/>
-      <c r="ZR9"/>
-      <c r="ZS9"/>
-      <c r="ZT9"/>
-      <c r="ZU9"/>
-      <c r="ZV9"/>
-      <c r="ZW9"/>
-      <c r="ZX9"/>
-      <c r="ZY9"/>
-      <c r="ZZ9"/>
-    </row>
+    <row r="7" spans="1:703" ht="21" customHeight="1"/>
+    <row r="8" spans="1:703" ht="21" customHeight="1"/>
+    <row r="9" spans="1:703" ht="21" customHeight="1"/>
+    <row r="10" spans="1:703" ht="21" customHeight="1"/>
+    <row r="11" spans="1:703" ht="21" customHeight="1"/>
+    <row r="12" spans="1:703" ht="21" customHeight="1"/>
+    <row r="13" spans="1:703" ht="21" customHeight="1"/>
+    <row r="14" spans="1:703" ht="21" customHeight="1"/>
+    <row r="15" spans="1:703" ht="21" customHeight="1"/>
+    <row r="16" spans="1:703" ht="21" customHeight="1"/>
+    <row r="17" ht="21" customHeight="1"/>
+    <row r="18" ht="21" customHeight="1"/>
+    <row r="19" ht="21" customHeight="1"/>
+    <row r="20" ht="21" customHeight="1"/>
+    <row r="21" ht="21" customHeight="1"/>
+    <row r="22" ht="21" customHeight="1"/>
+    <row r="23" ht="21" customHeight="1"/>
+    <row r="24" ht="21" customHeight="1"/>
+    <row r="25" ht="21" customHeight="1"/>
+    <row r="26" ht="21" customHeight="1"/>
+    <row r="27" ht="21" customHeight="1"/>
+    <row r="28" ht="21" customHeight="1"/>
+    <row r="29" ht="21" customHeight="1"/>
+    <row r="30" ht="21" customHeight="1"/>
+    <row r="31" ht="21" customHeight="1"/>
+    <row r="32" ht="21" customHeight="1"/>
+    <row r="33" ht="21" customHeight="1"/>
+    <row r="34" ht="21" customHeight="1"/>
+    <row r="35" ht="21" customHeight="1"/>
+    <row r="36" ht="21" customHeight="1"/>
+    <row r="37" ht="21" customHeight="1"/>
+    <row r="38" ht="21" customHeight="1"/>
+    <row r="39" ht="21" customHeight="1"/>
+    <row r="40" ht="21" customHeight="1"/>
+    <row r="41" ht="21" customHeight="1"/>
+    <row r="42" ht="21" customHeight="1"/>
+    <row r="43" ht="21" customHeight="1"/>
+    <row r="44" ht="21" customHeight="1"/>
+    <row r="45" ht="21" customHeight="1"/>
+    <row r="46" ht="21" customHeight="1"/>
+    <row r="47" ht="21" customHeight="1"/>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <conditionalFormatting sqref="A11:A1048576 A1:A9">
+  <conditionalFormatting sqref="A8:A1048576 A1:A6">
     <cfRule type="beginsWith" dxfId="14" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
@@ -7148,7 +5048,7 @@
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B1048576 B1:B9">
+  <conditionalFormatting sqref="B8:B1048576 B1:B6">
     <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
@@ -7156,23 +5056,23 @@
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
+  <conditionalFormatting sqref="A7">
     <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
-      <formula>LEFT(A10,LEN("sentry.scope."))="sentry.scope."</formula>
+      <formula>LEFT(A7,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
-      <formula>LEFT(A10,LEN("sentry."))="sentry."</formula>
+      <formula>LEFT(A7,LEN("sentry."))="sentry."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
-      <formula>LEN(TRIM(A10))&gt;0</formula>
+      <formula>LEN(TRIM(A7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
+  <conditionalFormatting sqref="B7">
     <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="5">
-      <formula>LEN(TRIM(B10))&gt;0</formula>
+      <formula>LEN(TRIM(B7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7182,7 +5082,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C038B24C-D2C7-7D40-9BBE-3AA87580F7E7}">
-  <dimension ref="A1:AAA6"/>
+  <dimension ref="A1:AAA51"/>
   <sheetViews>
     <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
@@ -7195,12 +5095,12 @@
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703">
+    <row r="1" spans="1:703" ht="23" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -7904,12 +5804,12 @@
       <c r="ZZ1"/>
       <c r="AAA1" s="5"/>
     </row>
-    <row r="2" spans="1:703">
+    <row r="2" spans="1:703" ht="23" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -8613,12 +6513,12 @@
       <c r="ZZ2"/>
       <c r="AAA2" s="5"/>
     </row>
-    <row r="3" spans="1:703">
+    <row r="3" spans="1:703" ht="23" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -9322,12 +7222,12 @@
       <c r="ZZ3"/>
       <c r="AAA3" s="5"/>
     </row>
-    <row r="4" spans="1:703">
+    <row r="4" spans="1:703" ht="23" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -10030,12 +7930,12 @@
       <c r="ZY4"/>
       <c r="ZZ4"/>
     </row>
-    <row r="5" spans="1:703">
+    <row r="5" spans="1:703" ht="23" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -10738,9 +8638,9 @@
       <c r="ZY5"/>
       <c r="ZZ5"/>
     </row>
-    <row r="6" spans="1:703">
+    <row r="6" spans="1:703" ht="23" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -11446,6 +9346,51 @@
       <c r="ZY6"/>
       <c r="ZZ6"/>
     </row>
+    <row r="7" spans="1:703" ht="23" customHeight="1"/>
+    <row r="8" spans="1:703" ht="23" customHeight="1"/>
+    <row r="9" spans="1:703" ht="23" customHeight="1"/>
+    <row r="10" spans="1:703" ht="23" customHeight="1"/>
+    <row r="11" spans="1:703" ht="23" customHeight="1"/>
+    <row r="12" spans="1:703" ht="23" customHeight="1"/>
+    <row r="13" spans="1:703" ht="23" customHeight="1"/>
+    <row r="14" spans="1:703" ht="23" customHeight="1"/>
+    <row r="15" spans="1:703" ht="23" customHeight="1"/>
+    <row r="16" spans="1:703" ht="23" customHeight="1"/>
+    <row r="17" ht="23" customHeight="1"/>
+    <row r="18" ht="23" customHeight="1"/>
+    <row r="19" ht="23" customHeight="1"/>
+    <row r="20" ht="23" customHeight="1"/>
+    <row r="21" ht="23" customHeight="1"/>
+    <row r="22" ht="23" customHeight="1"/>
+    <row r="23" ht="23" customHeight="1"/>
+    <row r="24" ht="23" customHeight="1"/>
+    <row r="25" ht="23" customHeight="1"/>
+    <row r="26" ht="23" customHeight="1"/>
+    <row r="27" ht="23" customHeight="1"/>
+    <row r="28" ht="23" customHeight="1"/>
+    <row r="29" ht="23" customHeight="1"/>
+    <row r="30" ht="23" customHeight="1"/>
+    <row r="31" ht="23" customHeight="1"/>
+    <row r="32" ht="23" customHeight="1"/>
+    <row r="33" ht="23" customHeight="1"/>
+    <row r="34" ht="23" customHeight="1"/>
+    <row r="35" ht="23" customHeight="1"/>
+    <row r="36" ht="23" customHeight="1"/>
+    <row r="37" ht="23" customHeight="1"/>
+    <row r="38" ht="23" customHeight="1"/>
+    <row r="39" ht="23" customHeight="1"/>
+    <row r="40" ht="23" customHeight="1"/>
+    <row r="41" ht="23" customHeight="1"/>
+    <row r="42" ht="23" customHeight="1"/>
+    <row r="43" ht="23" customHeight="1"/>
+    <row r="44" ht="23" customHeight="1"/>
+    <row r="45" ht="23" customHeight="1"/>
+    <row r="46" ht="23" customHeight="1"/>
+    <row r="47" ht="23" customHeight="1"/>
+    <row r="48" ht="23" customHeight="1"/>
+    <row r="49" ht="23" customHeight="1"/>
+    <row r="50" ht="23" customHeight="1"/>
+    <row r="51" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A6 A8:A1048576">
